--- a/Data/model_outputs_baseline/number_of_dwellings/i_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_SFH.xlsx
@@ -434,3616 +434,3618 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SFH</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>38443.62147717065</v>
+        <v>40802.01931231975</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>46.31486330029504</v>
+        <v>49.15613759094706</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>47.06714195157651</v>
+        <v>49.9545662217164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>47.83598554171773</v>
+        <v>50.77057599935205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>48.62196440028058</v>
+        <v>51.60477224137885</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>49.42567201310439</v>
+        <v>52.45778484216541</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>50.24772571658705</v>
+        <v>53.33026900979727</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>51.08876738701696</v>
+        <v>54.2229059976972</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>51.94946412262964</v>
+        <v>55.13640382852392</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>52.83050891524147</v>
+        <v>56.0714980070085</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>53.73262130934735</v>
+        <v>57.02895221948558</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>54.65654804586153</v>
+        <v>58.00955901712577</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>55.6030636868223</v>
+        <v>59.01414047896407</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>56.57297121890147</v>
+        <v>60.04354885243271</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>57.56710263146129</v>
+        <v>61.0986671668802</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>58.58631946663472</v>
+        <v>62.18040981739722</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>59.63151333708085</v>
+        <v>63.28972311433482</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>60.70360640823743</v>
+        <v>64.42758579514161</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>61.80355184114771</v>
+        <v>65.5950094943567</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>62.93233419155132</v>
+        <v>66.79303916718354</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>64.09096976190149</v>
+        <v>68.02275346310235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>65.28050690135973</v>
+        <v>69.28526504426854</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>66.50202625001224</v>
+        <v>70.58172084471097</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>67.75664092299769</v>
+        <v>71.91330226575559</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>69.04549662964283</v>
+        <v>73.28122530246944</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>70.36977172382747</v>
+        <v>74.68674059711546</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>71.7306771804855</v>
+        <v>76.13113341421196</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>73.12945649398435</v>
+        <v>77.61572353267792</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>74.567385493974</v>
+        <v>79.14186505038492</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>76.04577207371028</v>
+        <v>80.71094609581388</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>77.56595582680079</v>
+        <v>82.32438844251651</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>79.12930758770558</v>
+        <v>83.98364702142709</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>80.73722887151465</v>
+        <v>85.69020932627204</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>82.39115120891243</v>
+        <v>87.44559470773657</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>84.0925353718514</v>
+        <v>89.25135355163569</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>85.84287048620958</v>
+        <v>91.10906633713599</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>87.64367302703042</v>
+        <v>93.02034257035662</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>89.49648569323547</v>
+        <v>94.98681959004901</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>91.40287615783406</v>
+        <v>97.01016124113579</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>93.36443569056598</v>
+        <v>99.09205641285683</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>95.38277764967816</v>
+        <v>101.234217438021</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>97.45953584088861</v>
+        <v>103.4383783512978</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>99.59636273998021</v>
+        <v>105.7062930027724</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>101.794927578112</v>
+        <v>108.0397330257971</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>104.0569142874223</v>
+        <v>110.4404856565631</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>106.3840193057921</v>
+        <v>112.9103514041932</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>108.7779492405007</v>
+        <v>115.4511415710698</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>111.2404183894231</v>
+        <v>118.0646756219653</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>113.7731461205946</v>
+        <v>120.7527784028512</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>116.3778541107005</v>
+        <v>123.5172772099776</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>119.0562634431886</v>
+        <v>126.3599987099635</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>121.8100915682319</v>
+        <v>129.2827657132635</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>124.6410491263144</v>
+        <v>132.2873938028891</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>127.5508366390338</v>
+        <v>135.3756878222032</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>130.5411410696772</v>
+        <v>138.5494382244977</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>133.6136322584341</v>
+        <v>141.8104172895173</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>136.7699592370446</v>
+        <v>145.1603752120231</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>140.0117464275731</v>
+        <v>148.6010360673725</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>143.3405897322706</v>
+        <v>152.1340936615071</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>146.7580525210343</v>
+        <v>155.7612072722547</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>150.2656615237701</v>
+        <v>159.4839972897009</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>153.8649026358897</v>
+        <v>163.304040764367</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>157.5572166463945</v>
+        <v>167.2228668732244</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>161.3439948968158</v>
+        <v>171.2419523123242</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>165.2265748829474</v>
+        <v>175.36271662871</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>169.2062358085624</v>
+        <v>179.5865175013685</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>173.2841941038695</v>
+        <v>183.9146459847571</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>177.4615989205319</v>
+        <v>188.3483217274562</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>181.7395276158223</v>
+        <v>192.8886881792907</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>186.118981239423</v>
+        <v>197.5368078012591</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>190.6008800372629</v>
+        <v>202.2936572935454</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>195.186058986022</v>
+        <v>207.1601228560786</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>199.8752633741241</v>
+        <v>212.1369954984329</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>204.6691444441173</v>
+        <v>217.2249664148821</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>209.5682551124698</v>
+        <v>222.4246224416177</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>214.5730457829187</v>
+        <v>227.7364416132594</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>219.6838602700749</v>
+        <v>233.1607888363863</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>224.9009318496605</v>
+        <v>238.6979116974678</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>230.224379452839</v>
+        <v>244.3479364237282</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>79</v>
+        <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>235.6542040213579</v>
+        <v>250.1108640146885</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>80</v>
+        <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>241.1902850408893</v>
+        <v>255.9865665628374</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>81</v>
+        <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>246.8323772697182</v>
+        <v>261.974783781636</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>82</v>
+        <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>252.5801076799931</v>
+        <v>268.0751197591221</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>83</v>
+        <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>258.4329726284274</v>
+        <v>274.2870399550441</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>84</v>
+        <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>264.3903352735302</v>
+        <v>280.6098684596459</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>85</v>
+        <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>270.4514232552672</v>
+        <v>287.0427855309827</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>86</v>
+        <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>276.6153266543504</v>
+        <v>293.5848254290194</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>282.880996246315</v>
+        <v>300.2348745625997</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>88</v>
+        <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>289.2472420651308</v>
+        <v>306.9916699649411</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>89</v>
+        <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>295.7127322923687</v>
+        <v>313.8537981146534</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>90</v>
+        <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>302.2759924848737</v>
+        <v>320.8196941160328</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>91</v>
+        <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>308.9354051543721</v>
+        <v>327.8876412528793</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>92</v>
+        <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>315.6892097119745</v>
+        <v>335.0557709295949</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>93</v>
+        <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>322.5355027888477</v>
+        <v>342.3220630115276</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>94</v>
+        <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>329.4722389434045</v>
+        <v>349.6843465755453</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>95</v>
+        <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>336.4972317652179</v>
+        <v>357.1403010816719</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>96</v>
+        <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>343.6081553836762</v>
+        <v>364.6874579742936</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>97</v>
+        <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>350.802546388949</v>
+        <v>372.32320272097</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>98</v>
+        <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>358.0778061712915</v>
+        <v>380.0447772952478</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>99</v>
+        <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>365.4312036832215</v>
+        <v>387.8492831082889</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>372.8598786288759</v>
+        <v>395.7336843938841</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>101</v>
+        <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>380.3608450815763</v>
+        <v>403.6948120479448</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>102</v>
+        <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>387.9309955306798</v>
+        <v>411.7293679236161</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>103</v>
+        <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>395.5671053575509</v>
+        <v>419.8339295818358</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>104</v>
+        <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>403.2658377368517</v>
+        <v>428.0049554933034</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>105</v>
+        <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>411.0237489608393</v>
+        <v>436.2387906894068</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>106</v>
+        <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>418.8372941798513</v>
+        <v>444.531672854869</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>107</v>
+        <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>426.702833552989</v>
+        <v>452.8797388557571</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>108</v>
+        <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>434.616638799868</v>
+        <v>461.2790316931618</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>109</v>
+        <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>442.5749001431572</v>
+        <v>469.7255078716404</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>110</v>
+        <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>450.5737336305862</v>
+        <v>478.2150451704071</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>111</v>
+        <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>458.6091888223587</v>
+        <v>486.7434508023447</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>112</v>
+        <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>466.6772568298742</v>
+        <v>495.306469945878</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>113</v>
+        <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>474.77387868861</v>
+        <v>503.8997946315054</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>114</v>
+        <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>482.8949540475693</v>
+        <v>512.519072964319</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>115</v>
+        <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>491.036350155866</v>
+        <v>521.1599186618876</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>116</v>
+        <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>499.1939111257662</v>
+        <v>529.8179208855581</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>117</v>
+        <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>507.3634674496309</v>
+        <v>538.4886543412333</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>118</v>
+        <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>515.5408457478929</v>
+        <v>547.1676896253562</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>119</v>
+        <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>523.7218787230389</v>
+        <v>555.8506037895396</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>120</v>
+        <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>531.9024152940481</v>
+        <v>564.5329910967205</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>121</v>
+        <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>540.0783308842588</v>
+        <v>573.2104739401559</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>122</v>
+        <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>548.245537835052</v>
+        <v>581.8787138959538</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>123</v>
+        <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>556.3999959165939</v>
+        <v>590.5334228786169</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>124</v>
+        <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>564.5377229063038</v>
+        <v>599.1703743684682</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>125</v>
+        <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>572.6548052046809</v>
+        <v>607.7854146787248</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>126</v>
+        <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>580.7474084583345</v>
+        <v>616.3744742302189</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>127</v>
+        <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>588.8117881583975</v>
+        <v>624.9335787999913</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>128</v>
+        <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>596.8443001839054</v>
+        <v>633.4588607114741</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>129</v>
+        <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>604.8414112571371</v>
+        <v>641.9465699312346</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>130</v>
+        <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>612.7997092807472</v>
+        <v>650.3930850402589</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>131</v>
+        <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>620.7159135239812</v>
+        <v>658.79492404506</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>132</v>
+        <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>628.5868846263966</v>
+        <v>667.1487549950963</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>133</v>
+        <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>636.4096343892011</v>
+        <v>675.451406374778</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>134</v>
+        <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>644.1813353212717</v>
+        <v>683.699877235106</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>135</v>
+        <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>651.8993299118814</v>
+        <v>691.8913470352505</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>136</v>
+        <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>659.5611395991177</v>
+        <v>700.023185161156</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>137</v>
+        <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>667.1644734053936</v>
+        <v>708.0929600908128</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>138</v>
+        <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>674.707236213023</v>
+        <v>716.0984481775139</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>139</v>
+        <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>682.1875366521276</v>
+        <v>724.0376420216618</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>140</v>
+        <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>689.603694575507</v>
+        <v>731.9087584041969</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>141</v>
+        <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>696.9542480966444</v>
+        <v>739.7102457563651</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>142</v>
+        <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>704.2379601666967</v>
+        <v>747.4407911401847</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>143</v>
+        <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>711.4538246701695</v>
+        <v>755.099326718073</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>144</v>
+        <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>718.6010720179686</v>
+        <v>762.6850356890137</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>145</v>
+        <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>725.6791742209781</v>
+        <v>770.1973576733842</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>146</v>
+        <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>732.6878494258019</v>
+        <v>777.6359935269502</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>147</v>
+        <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>739.6270658994057</v>
+        <v>785.0009095699531</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>148</v>
+        <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>746.4970454490002</v>
+        <v>792.2923412167936</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>149</v>
+        <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>753.298266265624</v>
+        <v>799.5107959940582</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>760.0314651837546</v>
+        <v>806.6570559387515</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>151</v>
+        <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>766.6976393483276</v>
+        <v>813.7321793675812</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>152</v>
+        <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>773.2980472856633</v>
+        <v>820.7375020135836</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>153</v>
+        <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>779.8342093741771</v>
+        <v>827.674637525709</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>154</v>
+        <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>786.3079077146009</v>
+        <v>834.5454773310838</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>155</v>
+        <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>792.7211854016371</v>
+        <v>841.3521898619807</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>156</v>
+        <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>799.0763451986966</v>
+        <v>848.0972191492576</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>157</v>
+        <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>805.3759476233181</v>
+        <v>854.7832827903218</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>158</v>
+        <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>811.622808448984</v>
+        <v>861.4133692976908</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>159</v>
+        <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>817.8199956340042</v>
+        <v>867.9907348394729</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>160</v>
+        <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>823.9708256885026</v>
+        <v>874.5188993834787</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>161</v>
+        <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>830.0788594931155</v>
+        <v>881.0016422594097</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>162</v>
+        <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>836.1478975850195</v>
+        <v>887.442997155699</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>163</v>
+        <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>842.1819749276717</v>
+        <v>893.8472465683911</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>164</v>
+        <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>848.1853551843069</v>
+        <v>900.218915723335</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>165</v>
+        <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>854.1625245152298</v>
+        <v>906.5627659929604</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>166</v>
+        <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>860.1181849208217</v>
+        <v>912.8837878308974</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>167</v>
+        <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>866.057247154441</v>
+        <v>919.187193250106</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>168</v>
+        <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>871.9848232303656</v>
+        <v>925.4784078712037</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>169</v>
+        <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>877.9062185526323</v>
+        <v>931.7630625684329</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>170</v>
+        <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>883.8269236928301</v>
+        <v>938.046984743048</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>171</v>
+        <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>889.7526058453129</v>
+        <v>944.3361892543309</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>172</v>
+        <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>895.6890999895198</v>
+        <v>950.6368690397472</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>173</v>
+        <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>901.642399789551</v>
+        <v>956.9553854562389</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>174</v>
+        <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>907.6186482625849</v>
+        <v>963.2982583761785</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>175</v>
+        <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>913.624128247695</v>
+        <v>969.6721560714757</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>176</v>
+        <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>919.6652527070913</v>
+        <v>976.0838849198307</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>177</v>
+        <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>925.7485548927226</v>
+        <v>982.5403789680879</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>178</v>
+        <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>931.8806784105795</v>
+        <v>989.0486893870142</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>179</v>
+        <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>938.0683672160055</v>
+        <v>995.615973852853</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>180</v>
+        <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>944.3184555726765</v>
+        <v>1002.249485890319</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>181</v>
+        <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>950.6378580077394</v>
+        <v>1008.956564211514</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>182</v>
+        <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>957.0335592955989</v>
+        <v>1015.744622085251</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>183</v>
+        <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>963.5126045029017</v>
+        <v>1022.621136771328</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>184</v>
+        <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>970.0820891253283</v>
+        <v>1029.593639052244</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>185</v>
+        <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>976.7491493476407</v>
+        <v>1036.669702895728</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>186</v>
+        <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>983.5209524574918</v>
+        <v>1043.856935280467</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>187</v>
+        <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>990.4046874411318</v>
+        <v>1051.162966214888</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>188</v>
+        <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>997.4075557912531</v>
+        <v>1058.595438981091</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>189</v>
+        <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1004.536762552743</v>
+        <v>1066.162000631288</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>190</v>
+        <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1011.799507633346</v>
+        <v>1073.870292765398</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>191</v>
+        <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1019.202977405379</v>
+        <v>1081.72794261756</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>192</v>
+        <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1026.754336620443</v>
+        <v>1089.74255447483</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>193</v>
+        <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1034.460720661393</v>
+        <v>1097.921701453835</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>194</v>
+        <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1042.329228152557</v>
+        <v>1106.272917657652</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>195</v>
+        <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1050.366913947523</v>
+        <v>1114.803690733424</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>196</v>
+        <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1058.580782513332</v>
+        <v>1123.521454850677</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>197</v>
+        <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>1066.977781728174</v>
+        <v>1132.433584118545</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>198</v>
+        <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>1075.564797107312</v>
+        <v>1141.547386457454</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>199</v>
+        <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1084.348646472001</v>
+        <v>1150.870097941007</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1093.336075073044</v>
+        <v>1160.408877620377</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>201</v>
+        <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1102.533997204615</v>
+        <v>1170.171063960404</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>202</v>
+        <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1111.948535418609</v>
+        <v>1180.163155112692</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>203</v>
+        <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1121.586413573974</v>
+        <v>1190.392287424238</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>204</v>
+        <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1131.454047441146</v>
+        <v>1200.865270253245</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>205</v>
+        <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1141.557762986316</v>
+        <v>1211.588817644456</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>206</v>
+        <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>1151.903794394022</v>
+        <v>1222.569546230439</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>207</v>
+        <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1162.498282587255</v>
+        <v>1233.813973660908</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>208</v>
+        <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>1173.347274244583</v>
+        <v>1245.328517559545</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>209</v>
+        <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>1184.456721313027</v>
+        <v>1257.119495007001</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>210</v>
+        <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>1195.832481013969</v>
+        <v>1269.193122547158</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>211</v>
+        <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1207.480316337444</v>
+        <v>1281.55551671175</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>212</v>
+        <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1219.405897019811</v>
+        <v>1294.212695058007</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>213</v>
+        <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1231.614800998568</v>
+        <v>1307.170577712723</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>214</v>
+        <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1244.112516335242</v>
+        <v>1320.434989413106</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>215</v>
+        <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1256.904443598382</v>
+        <v>1334.011662035959</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>216</v>
+        <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>1269.995898696576</v>
+        <v>1347.906237604498</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>217</v>
+        <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1283.39211614974</v>
+        <v>1362.124271760324</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>218</v>
+        <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1297.098252787372</v>
+        <v>1376.671237688548</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>219</v>
+        <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>1311.119391861922</v>
+        <v>1391.552530483511</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>220</v>
+        <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1325.460547560062</v>
+        <v>1406.773471936802</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>221</v>
+        <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>1340.126669902887</v>
+        <v>1422.339315738072</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>222</v>
+        <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1355.122650014676</v>
+        <v>1438.255253067018</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>223</v>
+        <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>1370.453325749386</v>
+        <v>1454.526418565046</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>224</v>
+        <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>1386.123487653236</v>
+        <v>1471.157896663636</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>225</v>
+        <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>1402.13788525355</v>
+        <v>1488.154728258994</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>226</v>
+        <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>1418.501233649832</v>
+        <v>1505.521917707465</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>227</v>
+        <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>1435.218220394536</v>
+        <v>1523.264440128415</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>228</v>
+        <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>1452.293512643222</v>
+        <v>1541.38724899303</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>229</v>
+        <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>1469.731764558031</v>
+        <v>1559.895283981973</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>230</v>
+        <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>1487.537624943162</v>
+        <v>1578.793479089268</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>231</v>
+        <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>1505.715745097172</v>
+        <v>1598.086770956322</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>232</v>
+        <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>1524.270786862374</v>
+        <v>1617.780107415122</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>233</v>
+        <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>1543.207430851089</v>
+        <v>1637.878456219146</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>234</v>
+        <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>1562.530384832983</v>
+        <v>1658.386813945238</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>235</v>
+        <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>1582.24439226241</v>
+        <v>1679.310215044075</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>236</v>
+        <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>1602.354240927878</v>
+        <v>1700.653741020251</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>237</v>
+        <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>1622.864771705484</v>
+        <v>1722.422529722709</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>238</v>
+        <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>1643.780887397027</v>
+        <v>1744.621784725047</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>239</v>
+        <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>1665.107561633497</v>
+        <v>1767.256784775204</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>240</v>
+        <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>1686.849847827902</v>
+        <v>1790.332893297522</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>241</v>
+        <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>1709.012888156418</v>
+        <v>1813.855567924855</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>242</v>
+        <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>1731.601922550141</v>
+        <v>1837.830370041942</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>243</v>
+        <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>1754.622297681011</v>
+        <v>1862.262974322586</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>244</v>
+        <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>1778.079475920595</v>
+        <v>1887.159178238036</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>245</v>
+        <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>1801.979044256821</v>
+        <v>1912.524911520732</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>246</v>
+        <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>1826.326723148063</v>
+        <v>1938.366245561557</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>247</v>
+        <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>1851.128375297895</v>
+        <v>1964.689402722904</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>248</v>
+        <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>1876.390014332046</v>
+        <v>1991.500765547927</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>249</v>
+        <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>1902.117813360142</v>
+        <v>2018.806885847525</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>250</v>
+        <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>1928.318113402347</v>
+        <v>2046.614493643931</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>251</v>
+        <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>1954.99743166553</v>
+        <v>2074.930505954591</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>252</v>
+        <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>1982.162469648783</v>
+        <v>2103.762035394938</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>253</v>
+        <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>2009.820121059367</v>
+        <v>2133.116398579951</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>254</v>
+        <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>2037.977479522921</v>
+        <v>2163.001124307367</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>255</v>
+        <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>2066.641846067448</v>
+        <v>2193.423961500781</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>256</v>
+        <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>2095.820736361886</v>
+        <v>2224.392886892285</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>257</v>
+        <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>2125.521887690706</v>
+        <v>2255.916112424934</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>258</v>
+        <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>2155.753265645802</v>
+        <v>2288.002092355164</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>259</v>
+        <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>2186.52307051247</v>
+        <v>2320.659530030531</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>260</v>
+        <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>2217.839743333863</v>
+        <v>2353.897384326202</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>261</v>
+        <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>2249.711971628261</v>
+        <v>2387.724875712958</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>262</v>
+        <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>2282.148694739987</v>
+        <v>2422.151491936378</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>263</v>
+        <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>2315.159108805028</v>
+        <v>2457.186993287084</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>264</v>
+        <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>2348.752671300343</v>
+        <v>2492.841417429135</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>265</v>
+        <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>2382.939105164638</v>
+        <v>2529.125083773593</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>266</v>
+        <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>2417.728402458767</v>
+        <v>2566.048597363488</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>267</v>
+        <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>2453.130827543322</v>
+        <v>2603.622852246337</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>268</v>
+        <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>2489.156919750938</v>
+        <v>2641.859034310387</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>269</v>
+        <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>2525.817495523215</v>
+        <v>2680.768623552637</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>270</v>
+        <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>2563.123649989584</v>
+        <v>2720.36339575455</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>271</v>
+        <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>2601.086757956835</v>
+        <v>2760.6554235323</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>272</v>
+        <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>2639.718474284055</v>
+        <v>2801.657076734699</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>273</v>
+        <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>2679.030733612528</v>
+        <v>2843.381022156539</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>274</v>
+        <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>2719.035749419785</v>
+        <v>2885.840222534595</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>275</v>
+        <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>2759.746012369717</v>
+        <v>2929.047934796541</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>276</v>
+        <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>2801.174287924205</v>
+        <v>2973.017707526045</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>277</v>
+        <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>2843.333613186109</v>
+        <v>3017.763377612099</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>278</v>
+        <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>2886.237292939012</v>
+        <v>3063.299066045798</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>279</v>
+        <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>2929.898894851503</v>
+        <v>3109.639172830436</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>280</v>
+        <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>2974.332243809888</v>
+        <v>3156.798370966535</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>281</v>
+        <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>3019.551415345304</v>
+        <v>3204.791599475737</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>282</v>
+        <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>3065.570728118852</v>
+        <v>3253.634055424926</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>283</v>
+        <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>3112.404735428878</v>
+        <v>3303.3411849125</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>284</v>
+        <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>3160.068215704636</v>
+        <v>3353.928672978856</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>285</v>
+        <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>3208.576161946266</v>
+        <v>3405.412432398537</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>286</v>
+        <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>3257.943770078465</v>
+        <v>3457.808591319444</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>287</v>
+        <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>3308.186426176642</v>
+        <v>3511.133479705347</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>288</v>
+        <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>3359.319692530666</v>
+        <v>3565.403614544694</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>289</v>
+        <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>3411.359292508189</v>
+        <v>3620.635683785341</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>290</v>
+        <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>3464.321094180597</v>
+        <v>3676.846528956005</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>291</v>
+        <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>3518.221092675625</v>
+        <v>3734.053126436269</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>292</v>
+        <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>3573.075391223207</v>
+        <v>3792.272567339652</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>293</v>
+        <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>3628.90018085436</v>
+        <v>3851.522035967085</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>294</v>
+        <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>3685.711718726728</v>
+        <v>3911.818786802785</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>295</v>
+        <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>3743.52630503991</v>
+        <v>3973.180120013421</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>296</v>
+        <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>3802.360258511196</v>
+        <v>4035.623355419353</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>297</v>
+        <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>3862.229890383145</v>
+        <v>4099.165804907661</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>298</v>
+        <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>3923.151476938658</v>
+        <v>4163.824743261097</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>299</v>
+        <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>3985.141230496537</v>
+        <v>4229.617377374315</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>4048.215268866341</v>
+        <v>4296.560813834873</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>301</v>
+        <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>4112.389583250448</v>
+        <v>4364.672024856191</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>302</v>
+        <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>4177.680004571184</v>
+        <v>4433.967812538945</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>303</v>
+        <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>4244.102168216346</v>
+        <v>4504.464771453842</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>304</v>
+        <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>4311.671477199157</v>
+        <v>4576.179249541552</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>305</v>
+        <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>4380.40306372684</v>
+        <v>4649.127307323627</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>306</v>
+        <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>4450.311749182644</v>
+        <v>4723.324675429556</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>307</v>
+        <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>4521.412002534275</v>
+        <v>4798.78671045367</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>308</v>
+        <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>4593.717897179941</v>
+        <v>4875.528349153838</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>309</v>
+        <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>4667.24306625184</v>
+        <v>4953.564061012948</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>310</v>
+        <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>4742.000656413145</v>
+        <v>5032.907799201491</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>311</v>
+        <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>4818.003280179058</v>
+        <v>5113.572949973648</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>312</v>
+        <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>4895.262966803542</v>
+        <v>5195.572280541088</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>313</v>
+        <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>4973.791111790574</v>
+        <v>5278.917885486871</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>314</v>
+        <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>5053.598425086428</v>
+        <v>5363.62113177951</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>315</v>
+        <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>5134.69487802163</v>
+        <v>5449.692602459963</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>316</v>
+        <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>5217.089649088889</v>
+        <v>5537.142039093213</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>317</v>
+        <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>5300.791068638003</v>
+        <v>5625.978283070373</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>318</v>
+        <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>5385.80656259283</v>
+        <v>5716.209215872871</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>319</v>
+        <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>5472.142595305021</v>
+        <v>5807.841698420432</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>320</v>
+        <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>5559.804611655536</v>
+        <v>5900.881509620703</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>321</v>
+        <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>5648.796978550069</v>
+        <v>5995.333284275597</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>322</v>
+        <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>5739.122925940307</v>
+        <v>6091.200450484396</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>323</v>
+        <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>5830.784487542775</v>
+        <v>6188.485166725873</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>324</v>
+        <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>5923.782441408724</v>
+        <v>6287.188258782327</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>325</v>
+        <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>6018.11625053545</v>
+        <v>6387.309156707593</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>326</v>
+        <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>6113.78400371003</v>
+        <v>6488.845832041718</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>327</v>
+        <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>6210.782356786073</v>
+        <v>6591.794735485224</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>328</v>
+        <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>6309.106474613152</v>
+        <v>6696.150735266089</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>329</v>
+        <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>6408.749973845652</v>
+        <v>6801.907056440094</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>330</v>
+        <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>6509.704866870094</v>
+        <v>6909.055221378264</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>331</v>
+        <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>6611.961507096809</v>
+        <v>7017.584991702349</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>332</v>
+        <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>6715.508535881474</v>
+        <v>7127.48431195016</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>333</v>
+        <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>6820.33283134003</v>
+        <v>7238.739255250446</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>334</v>
+        <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>6926.419459337566</v>
+        <v>7351.333971305094</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>335</v>
+        <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>7033.751626938339</v>
+        <v>7465.250636983444</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>336</v>
+        <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>7142.310638606681</v>
+        <v>7580.469409836267</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>337</v>
+        <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>7252.075855457245</v>
+        <v>7696.968384846134</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>338</v>
+        <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>7363.024657868051</v>
+        <v>7814.723554746885</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>339</v>
+        <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>7475.132411751225</v>
+        <v>7933.708774225192</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>340</v>
+        <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>7588.372438799324</v>
+        <v>8053.895728341571</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>341</v>
+        <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>7702.715991020422</v>
+        <v>8175.253905503288</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>342</v>
+        <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>7818.132229866874</v>
+        <v>8297.750575312732</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>343</v>
+        <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>7934.588210275723</v>
+        <v>8421.350771628751</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>344</v>
+        <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>8052.048869912499</v>
+        <v>8546.017281150587</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>345</v>
+        <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>8170.477023939562</v>
+        <v>8671.710637865279</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>346</v>
+        <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>8289.833365577146</v>
+        <v>8798.389123643121</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>347</v>
+        <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>8410.076472766881</v>
+        <v>8926.008775309976</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>348</v>
+        <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>8531.162821185664</v>
+        <v>9054.523398459498</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>349</v>
+        <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>8653.046803894058</v>
+        <v>9183.88458830691</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>350</v>
+        <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>8775.680757845123</v>
+        <v>9314.041757824067</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>351</v>
+        <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>8899.014997495924</v>
+        <v>9444.942173412921</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>352</v>
+        <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>9022.997855721038</v>
+        <v>9576.530998328955</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>353</v>
+        <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>9147.575732225614</v>
+        <v>9708.751344064229</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>354</v>
+        <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>9272.693149617058</v>
+        <v>9841.544329858893</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>355</v>
+        <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>9398.292817279591</v>
+        <v>9974.849150494243</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>356</v>
+        <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>9524.315703166742</v>
+        <v>9648.422021059796</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>357</v>
+        <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>9650.701113594196</v>
+        <v>9776.454292890461</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>358</v>
+        <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>9777.386781091851</v>
+        <v>9904.790734282322</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>359</v>
+        <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>9904.308960337559</v>
+        <v>10033.36676928167</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>360</v>
+        <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>10031.40253216695</v>
+        <v>10162.11643019076</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>361</v>
+        <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>10158.60111560405</v>
+        <v>10290.97247105825</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>362</v>
+        <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>10285.83718785484</v>
+        <v>10419.86648923632</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>363</v>
+        <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>10413.04221212569</v>
+        <v>10548.72905486466</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>364</v>
+        <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>10540.14677312403</v>
+        <v>10677.48984813675</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>365</v>
+        <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>10667.08072005986</v>
+        <v>10806.07780416475</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>366</v>
+        <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>10793.7733168966</v>
+        <v>10934.42126518825</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>367</v>
+        <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>10920.1533996136</v>
+        <v>11062.44813988589</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>368</v>
+        <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>11046.14954014967</v>
+        <v>11190.08606945521</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>369</v>
+        <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>11171.69021670411</v>
+        <v>11317.26260013278</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>370</v>
+        <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>11296.70399001507</v>
+        <v>11443.90536176952</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>371</v>
+        <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>11421.11968519298</v>
+        <v>12525.39438235054</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>372</v>
+        <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>11544.86657867207</v>
+        <v>12661.10600145088</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>373</v>
+        <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>11667.8745897993</v>
+        <v>12796.0072978233</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>374</v>
+        <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>11790.07447654078</v>
+        <v>12930.02233462394</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>375</v>
+        <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>11911.39803477782</v>
+        <v>13063.07631327711</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>376</v>
+        <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>12031.77830062038</v>
+        <v>13195.09579534989</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>377</v>
+        <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>12151.14975514807</v>
+        <v>13326.00892708885</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>378</v>
+        <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>12269.44853096574</v>
+        <v>13455.745665947</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>379</v>
+        <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>12386.61261994494</v>
+        <v>13584.2380084111</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>380</v>
+        <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>12502.58208149905</v>
+        <v>13711.42021841431</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>381</v>
+        <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>12617.29925074128</v>
+        <v>14792.39797354074</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>382</v>
+        <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>12730.70894583604</v>
+        <v>14925.35838848857</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>383</v>
+        <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>12842.75867388851</v>
+        <v>15056.7243914057</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>384</v>
+        <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>12953.39883466893</v>
+        <v>15186.43783146891</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>385</v>
+        <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>13062.58292150051</v>
+        <v>15314.44418470614</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>386</v>
+        <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>13170.26771862207</v>
+        <v>15440.69278538259</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>387</v>
+        <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>13276.41349434814</v>
+        <v>15565.13705245964</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>388</v>
+        <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>13380.98418935824</v>
+        <v>15687.73471034337</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>389</v>
+        <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>13483.94759944588</v>
+        <v>15808.44800313778</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>390</v>
+        <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>13585.2755520854</v>
+        <v>15927.24390164987</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>391</v>
+        <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>13684.94407616479</v>
+        <v>12477.9900996606</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>392</v>
+        <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>13782.93356428513</v>
+        <v>12567.33733088284</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>393</v>
+        <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>13879.22892699119</v>
+        <v>12655.13985136096</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>394</v>
+        <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>13973.81973837082</v>
+        <v>12741.38815470402</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>395</v>
+        <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>14066.70037243585</v>
+        <v>12826.07711111212</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>396</v>
+        <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>14157.87012973484</v>
+        <v>12909.20608282247</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>397</v>
+        <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>14247.33335367712</v>
+        <v>12990.77903017414</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>398</v>
+        <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>14335.09953602634</v>
+        <v>13070.80460779751</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>399</v>
+        <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>14421.18341110175</v>
+        <v>13149.29625050741</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>14505.6050381643</v>
+        <v>13226.27224842314</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>401</v>
+        <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>14588.38987155436</v>
+        <v>9407.887849263001</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>402</v>
+        <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>14669.56881811833</v>
+        <v>9460.239234968991</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>403</v>
+        <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>14749.17828146532</v>
+        <v>9511.578478675992</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>404</v>
+        <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>14827.26019264741</v>
+        <v>9561.932621245875</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>405</v>
+        <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>14903.8620268256</v>
+        <v>9611.332278873711</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>406</v>
+        <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>14979.03680548572</v>
+        <v>9659.811644516838</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>407</v>
+        <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>15052.84308382527</v>
+        <v>9707.408479760727</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>408</v>
+        <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>15125.34492283141</v>
+        <v>9754.164096812417</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>409</v>
+        <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>15196.61184569395</v>
+        <v>9800.123330391727</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>410</v>
+        <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>15266.71877805958</v>
+        <v>9845.334499201914</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>411</v>
+        <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>15335.74597174421</v>
+        <v>9991.874344193982</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>412</v>
+        <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>15403.77891141489</v>
+        <v>10036.20062513969</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>413</v>
+        <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>15470.90820380674</v>
+        <v>10079.93814241664</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>414</v>
+        <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>15537.22944899574</v>
+        <v>10123.14918343805</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>415</v>
+        <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>15602.84309324819</v>
+        <v>10165.89919311108</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>416</v>
+        <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>15667.85426293808</v>
+        <v>10208.25666562707</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>417</v>
+        <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>15732.37257903779</v>
+        <v>10250.2930235946</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>418</v>
+        <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>15796.51195165458</v>
+        <v>10292.08248417142</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>419</v>
+        <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>15860.39035409676</v>
+        <v>10333.70191185926</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>420</v>
+        <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>15924.12957591952</v>
+        <v>10375.23065760291</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>421</v>
+        <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>15987.85495445719</v>
+        <v>10416.75038387236</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>422</v>
+        <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>16051.69508427644</v>
+        <v>10458.34487535952</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>423</v>
+        <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>16115.78150409722</v>
+        <v>10500.09983499424</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>424</v>
+        <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>16180.24836064463</v>
+        <v>10542.10266492985</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>425</v>
+        <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>16245.23204902385</v>
+        <v>10584.44223223253</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>426</v>
+        <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>16310.87082920214</v>
+        <v>10627.20861900341</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>427</v>
+        <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>16377.30441823396</v>
+        <v>10670.49285669636</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>428</v>
+        <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>16444.6735579804</v>
+        <v>10714.38664446927</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>429</v>
+        <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>16513.1195581163</v>
+        <v>10758.98205143419</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>430</v>
+        <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>16582.78381433469</v>
+        <v>10804.37120274763</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>431</v>
+        <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>16653.80730180461</v>
+        <v>10850.64594957725</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>432</v>
+        <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>16726.33004402496</v>
+        <v>10897.89752303819</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>433</v>
+        <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>16800.49055744407</v>
+        <v>10946.21617233962</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>434</v>
+        <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>16876.42527230953</v>
+        <v>10995.69078744448</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>435</v>
+        <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>16954.26793051228</v>
+        <v>11046.40850673984</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>436</v>
+        <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>17034.14896130259</v>
+        <v>11098.45431029006</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>437</v>
+        <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>17116.1948361036</v>
+        <v>11151.91059947101</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>438</v>
+        <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>17200.52740380485</v>
+        <v>11206.85676388627</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>439</v>
+        <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>17287.26320829479</v>
+        <v>11263.36873671125</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>440</v>
+        <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>17376.51279022602</v>
+        <v>11321.51853976431</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>441</v>
+        <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>17468.3799753386</v>
+        <v>11381.37381981988</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>442</v>
+        <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>17562.96115202787</v>
+        <v>11442.99737791391</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>443</v>
+        <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>17660.34454114759</v>
+        <v>11506.44669359043</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>444</v>
+        <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>17760.60946141632</v>
+        <v>11571.77344628323</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>445</v>
+        <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>17863.82559414467</v>
+        <v>11639.02303625528</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>446</v>
+        <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>17970.05225136766</v>
+        <v>11708.23410775656</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>447</v>
+        <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>18079.3376518548</v>
+        <v>11779.43807731464</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>448</v>
+        <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>18191.71820973211</v>
+        <v>11852.65867024238</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>449</v>
+        <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>18307.21784093418</v>
+        <v>11927.9114687628</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>450</v>
+        <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>18425.84729290088</v>
+        <v>12005.20347527854</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/i_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_SFH.xlsx
@@ -445,7 +445,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>40802.01931231975</v>
+        <v>72146.20652552132</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>49.15613759094706</v>
+        <v>86.91797402200143</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>49.9545662217164</v>
+        <v>88.32975701368245</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>50.77057599935205</v>
+        <v>89.77262702199036</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>51.60477224137885</v>
+        <v>91.24765437049973</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>52.45778484216541</v>
+        <v>92.7559528396061</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>53.33026900979727</v>
+        <v>94.2986809694663</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>54.2229059976972</v>
+        <v>95.87704335365112</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>55.13640382852392</v>
+        <v>97.49229191914408</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>56.0714980070085</v>
+        <v>99.14572718678023</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>57.02895221948558</v>
+        <v>100.8386995081586</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>58.00955901712577</v>
+        <v>102.5726102737348</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>59.01414047896407</v>
+        <v>104.3489130851893</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>60.04354885243271</v>
+        <v>106.1691148880189</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>61.0986671668802</v>
+        <v>108.0347770563617</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>62.18040981739722</v>
+        <v>109.9475164253198</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>63.28972311433482</v>
+        <v>111.9090062626182</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>64.42758579514161</v>
+        <v>113.9209771736359</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>65.5950094943567</v>
+        <v>115.9852179324488</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>66.79303916718354</v>
+        <v>118.1035762307934</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>68.02275346310235</v>
+        <v>120.2779593386891</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>69.28526504426854</v>
+        <v>122.5103346674311</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>70.58172084471097</v>
+        <v>124.802730227905</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>71.91330226575559</v>
+        <v>127.1572349761351</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>73.28122530246944</v>
+        <v>129.5759990368632</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>74.68674059711546</v>
+        <v>132.0612337980676</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>76.13113341421196</v>
+        <v>134.6152118668629</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>77.61572353267792</v>
+        <v>137.240266878791</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>79.14186505038492</v>
+        <v>139.93879315223</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>80.71094609581388</v>
+        <v>142.7132451785448</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>82.32438844251651</v>
+        <v>145.5661369403768</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>83.98364702142709</v>
+        <v>148.5000410493134</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>85.69020932627204</v>
+        <v>151.5175876945315</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>87.44559470773657</v>
+        <v>154.6214633947418</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>89.25135355163569</v>
+        <v>157.8144095450294</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>91.10906633713599</v>
+        <v>161.0992207515997</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>93.02034257035662</v>
+        <v>164.4787429461697</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>94.98681959004901</v>
+        <v>167.9558712741684</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>97.01016124113579</v>
+        <v>171.5335477492864</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>99.09205641285683</v>
+        <v>175.2147586686225</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>101.234217438021</v>
+        <v>179.0025317822378</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>103.4383783512978</v>
+        <v>182.8999332134639</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>105.7062930027724</v>
+        <v>186.9100641232873</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>108.0397330257971</v>
+        <v>191.0360571171003</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>110.4404856565631</v>
+        <v>195.2810723892644</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>112.9103514041932</v>
+        <v>199.6482936033632</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>115.4511415710698</v>
+        <v>204.1409235076422</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>118.0646756219653</v>
+        <v>208.7621792830996</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>120.7527784028512</v>
+        <v>213.5152876257807</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>123.5172772099776</v>
+        <v>218.4034795643173</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>126.3599987099635</v>
+        <v>223.4299850140268</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>129.2827657132635</v>
+        <v>228.5980270717489</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>132.2873938028891</v>
+        <v>233.9108160547456</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>135.3756878222032</v>
+        <v>239.371543290412</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>138.5494382244977</v>
+        <v>244.9833746615926</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>141.8104172895173</v>
+        <v>250.7494439166324</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>145.1603752120231</v>
+        <v>256.6728457531669</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>148.6010360673725</v>
+        <v>262.7566286844535</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>152.1340936615071</v>
+        <v>269.003787701312</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>155.7612072722547</v>
+        <v>275.4172567418875</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>159.4839972897009</v>
+        <v>281.9999009829467</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>163.304040764367</v>
+        <v>288.7545089681577</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>167.2228668732244</v>
+        <v>295.6837845910889</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>171.2419523123242</v>
+        <v>302.7903389484479</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>175.36271662871</v>
+        <v>310.0766820859603</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>179.5865175013685</v>
+        <v>317.5452146541385</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>183.9146459847571</v>
+        <v>325.1982194978783</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>188.3483217274562</v>
+        <v>333.0378532020706</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>192.8886881792907</v>
+        <v>341.0661376168247</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>197.5368078012591</v>
+        <v>349.2849513876571</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>202.2936572935454</v>
+        <v>357.6960215176515</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>207.1601228560786</v>
+        <v>366.3009149871727</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>212.1369954984329</v>
+        <v>375.1010304608226</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>217.2249664148821</v>
+        <v>384.0975901096035</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>222.4246224416177</v>
+        <v>393.2916315783616</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>227.7364416132594</v>
+        <v>402.6840001288018</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>233.1607888363863</v>
+        <v>412.2753409894167</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>238.6979116974678</v>
+        <v>422.0660919430625</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>244.3479364237282</v>
+        <v>432.0564761849525</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>250.1108640146885</v>
+        <v>442.2464954824412</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>255.9865665628374</v>
+        <v>452.6359236692292</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>261.974783781636</v>
+        <v>463.2243005061736</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>268.0751197591221</v>
+        <v>474.0109259410058</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>274.2870399550441</v>
+        <v>484.9948547986573</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>280.6098684596459</v>
+        <v>496.174891934239</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>287.0427855309827</v>
+        <v>507.5495878785176</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>293.5848254290194</v>
+        <v>519.1172350081644</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>300.2348745625997</v>
+        <v>530.8758642692238</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>306.9916699649411</v>
+        <v>542.8232424814787</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>313.8537981146534</v>
+        <v>554.956870253775</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>320.8196941160328</v>
+        <v>567.2739805346155</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>327.8876412528793</v>
+        <v>579.7715378232184</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>335.0557709295949</v>
+        <v>592.4462380653677</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>342.3220630115276</v>
+        <v>605.2945092552102</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>349.6843465755453</v>
+        <v>618.3125127624213</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>357.1403010816719</v>
+        <v>631.496145403894</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>364.6874579742936</v>
+        <v>644.8410422749956</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>372.32320272097</v>
+        <v>658.342580354596</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>380.0447772952478</v>
+        <v>671.9958828951851</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>387.8492831082889</v>
+        <v>685.7958246065818</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>395.7336843938841</v>
+        <v>699.7370376413221</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>403.6948120479448</v>
+        <v>713.8139183836553</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>411.7293679236161</v>
+        <v>728.0206350441712</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>419.8339295818358</v>
+        <v>742.351136059747</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>428.0049554933034</v>
+        <v>756.7991592916788</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>436.2387906894068</v>
+        <v>771.3582420176608</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>444.531672854869</v>
+        <v>786.0217317048147</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>452.8797388557571</v>
+        <v>800.7827975525262</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>461.2790316931618</v>
+        <v>815.634442787956</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>469.7255078716404</v>
+        <v>830.569517694933</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>478.2150451704071</v>
+        <v>845.5807333549875</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>486.7434508023447</v>
+        <v>860.6606760741316</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>495.306469945878</v>
+        <v>875.8018224689329</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>503.8997946315054</v>
+        <v>890.9965551796971</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>512.519072964319</v>
+        <v>906.237179177744</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>521.1599186618876</v>
+        <v>921.5159386303116</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>529.8179208855581</v>
+        <v>936.8250342842797</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>538.4886543412333</v>
+        <v>952.1566413263852</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>547.1676896253562</v>
+        <v>967.5029276770108</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>555.8506037895396</v>
+        <v>982.8560726705824</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>564.5329910967205</v>
+        <v>998.208286074621</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>573.2104739401559</v>
+        <v>1013.551827396732</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>581.8787138959538</v>
+        <v>1028.879025427712</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>590.5334228786169</v>
+        <v>1044.182297966798</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>599.1703743684682</v>
+        <v>1059.454171674028</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>607.7854146787248</v>
+        <v>1074.687301992699</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>616.3744742302189</v>
+        <v>1089.874493085346</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>624.9335787999913</v>
+        <v>1105.008717723534</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>633.4588607114741</v>
+        <v>1120.083137074353</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>641.9465699312346</v>
+        <v>1135.091120321705</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>650.3930850402589</v>
+        <v>1150.026264065745</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>658.79492404506</v>
+        <v>1164.882411439107</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>667.1487549950963</v>
+        <v>1179.653670880637</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>675.451406374778</v>
+        <v>1194.334434510565</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>683.699877235106</v>
+        <v>1208.919396045282</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>691.8913470352505</v>
+        <v>1223.403568199241</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>700.023185161156</v>
+        <v>1237.782299515771</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>708.0929600908128</v>
+        <v>1252.051290573125</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>716.0984481775139</v>
+        <v>1266.206609515056</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>724.0376420216618</v>
+        <v>1280.244706853859</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>731.9087584041969</v>
+        <v>1294.162429498271</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>739.7102457563651</v>
+        <v>1307.957033961531</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>747.4407911401847</v>
+        <v>1321.626198704256</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>755.099326718073</v>
+        <v>1335.168035574045</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>762.6850356890137</v>
+        <v>1348.581100301818</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>770.1973576733842</v>
+        <v>1361.864402023283</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>777.6359935269502</v>
+        <v>1375.017411791049</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>785.0009095699531</v>
+        <v>1388.040070052504</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>792.2923412167936</v>
+        <v>1400.932793067829</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>799.5107959940582</v>
+        <v>1413.696478246479</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>806.6570559387515</v>
+        <v>1426.332508387743</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>813.7321793675812</v>
+        <v>1438.842754809194</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>820.7375020135836</v>
+        <v>1451.229579356473</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>827.674637525709</v>
+        <v>1463.495835286659</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>834.5454773310838</v>
+        <v>1475.64486702472</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>841.3521898619807</v>
+        <v>1487.680508796638</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>848.0972191492576</v>
+        <v>1499.607082142326</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>854.7832827903218</v>
+        <v>1511.429392322581</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>861.4133692976908</v>
+        <v>1523.152723630801</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>867.9907348394729</v>
+        <v>1534.782833629498</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>874.5188993834787</v>
+        <v>1546.325946332311</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>881.0016422594097</v>
+        <v>1557.788744357053</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>887.442997155699</v>
+        <v>1569.178360079125</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>893.8472465683911</v>
+        <v>1580.502365816006</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>900.218915723335</v>
+        <v>1591.768763080469</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>906.5627659929604</v>
+        <v>1602.98597094011</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>912.8837878308974</v>
+        <v>1614.16281352433</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>919.187193250106</v>
+        <v>1625.308506724152</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>925.4784078712037</v>
+        <v>1636.432644132053</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>931.7630625684329</v>
+        <v>1647.545182270355</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>938.046984743048</v>
+        <v>1658.656425160807</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>944.3361892543309</v>
+        <v>1669.777008288791</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>950.6368690397472</v>
+        <v>1680.917882017866</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>956.9553854562389</v>
+        <v>1692.090294511222</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>963.2982583761785</v>
+        <v>1703.305774219328</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>969.6721560714757</v>
+        <v>1714.576111992993</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>976.0838849198307</v>
+        <v>1725.913342881941</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>982.5403789680879</v>
+        <v>1737.329727680713</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>989.0486893870142</v>
+        <v>1748.837734282589</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>995.615973852853</v>
+        <v>1760.450018904032</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1002.249485890319</v>
+        <v>1772.179407240948</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1008.956564211514</v>
+        <v>1784.038875617741</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1015.744622085251</v>
+        <v>1796.041532190132</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1022.621136771328</v>
+        <v>1808.200598262818</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1029.593639052244</v>
+        <v>1820.529389779436</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1036.669702895728</v>
+        <v>1833.04129904383</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1043.856935280467</v>
+        <v>1845.749776729877</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1051.162966214888</v>
+        <v>1858.668314232687</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1058.595438981091</v>
+        <v>1871.810426417901</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1066.162000631288</v>
+        <v>1885.189634817481</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1073.870292765398</v>
+        <v>1898.819451322633</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1081.72794261756</v>
+        <v>1912.713362422963</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1089.74255447483</v>
+        <v>1926.884814033003</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1097.921701453835</v>
+        <v>1941.347196951676</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1106.272917657652</v>
+        <v>1956.113832994074</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1114.803690733424</v>
+        <v>1971.197961831813</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1123.521454850677</v>
+        <v>1986.612728577298</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>1132.433584118545</v>
+        <v>2002.371172144026</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>1141.547386457454</v>
+        <v>2018.486214410505</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1150.870097941007</v>
+        <v>2034.970650215552</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1160.408877620377</v>
+        <v>2051.837138206784</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1170.171063960404</v>
+        <v>2069.098654271396</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1180.163155112692</v>
+        <v>2086.766688453155</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1190.392287424238</v>
+        <v>2104.853859254107</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1200.865270253245</v>
+        <v>2123.372206994107</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1211.588817644456</v>
+        <v>2142.333603459574</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>1222.569546230439</v>
+        <v>2161.749748192535</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1233.813973660908</v>
+        <v>2181.632165713348</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>1245.328517559545</v>
+        <v>2201.99220367616</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>1257.119495007001</v>
+        <v>2222.841031954743</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>1269.193122547158</v>
+        <v>2244.189642653561</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1281.55551671175</v>
+        <v>2266.048851035418</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1294.212695058007</v>
+        <v>2288.429297356213</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1307.170577712723</v>
+        <v>2311.341449595168</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1320.434989413106</v>
+        <v>2334.795607063458</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1334.011662035959</v>
+        <v>2358.801904876321</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>1347.906237604498</v>
+        <v>2383.370319269713</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1362.124271760324</v>
+        <v>2408.510673739459</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1376.671237688548</v>
+        <v>2434.232645981664</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>1391.552530483511</v>
+        <v>2460.545775612186</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1406.773471936802</v>
+        <v>2487.459472632823</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>1422.339315738072</v>
+        <v>2514.983026627403</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1438.255253067018</v>
+        <v>2543.125616649525</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>1454.526418565046</v>
+        <v>2571.89632178169</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>1471.157896663636</v>
+        <v>2601.304132325108</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>1488.154728258994</v>
+        <v>2631.357961601836</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>1505.521917707465</v>
+        <v>2662.066658324082</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>1523.264440128415</v>
+        <v>2693.439019507172</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>1541.38724899303</v>
+        <v>2725.483803888084</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>1559.895283981973</v>
+        <v>2758.209745819362</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>1578.793479089268</v>
+        <v>2791.625569598428</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>1598.086770956322</v>
+        <v>2825.740004203809</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>1617.780107415122</v>
+        <v>2860.561798401238</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>1637.878456219146</v>
+        <v>2896.099736181668</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>1658.386813945238</v>
+        <v>2932.362652501576</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>1679.310215044075</v>
+        <v>2969.359449286024</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>1700.653741020251</v>
+        <v>3007.099111660896</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>1722.422529722709</v>
+        <v>3045.590724380265</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>1744.621784725047</v>
+        <v>3084.843488412651</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>1767.256784775204</v>
+        <v>3124.866737649994</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>1790.332893297522</v>
+        <v>3165.669955709199</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>1813.855567924855</v>
+        <v>3207.262792786843</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>1837.830370041942</v>
+        <v>3249.655082533777</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>1862.262974322586</v>
+        <v>3292.856858918788</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>1887.159178238036</v>
+        <v>3336.87837304133</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>1912.524911520732</v>
+        <v>3381.730109865349</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>1938.366245561557</v>
+        <v>3427.422804835507</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>1964.689402722904</v>
+        <v>3473.967460344575</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>1991.500765547927</v>
+        <v>3521.375362017244</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>2018.806885847525</v>
+        <v>3569.658094777746</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>2046.614493643931</v>
+        <v>3618.827558663922</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>2074.930505954591</v>
+        <v>3668.895984358903</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>2103.762035394938</v>
+        <v>3719.875948402542</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>2133.116398579951</v>
+        <v>3771.780388047069</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>2163.001124307367</v>
+        <v>3824.622615726662</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>2193.423961500781</v>
+        <v>3878.41633310245</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>2224.392886892285</v>
+        <v>3933.175644646971</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>2255.916112424934</v>
+        <v>3988.915070733228</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>2288.002092355164</v>
+        <v>4045.649560193193</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>2320.659530030531</v>
+        <v>4103.394502302222</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>2353.897384326202</v>
+        <v>4162.165738160065</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>2387.724875712958</v>
+        <v>4221.97957142033</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>2422.151491936378</v>
+        <v>4282.852778332415</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>2457.186993287084</v>
+        <v>4344.802617060373</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>2492.841417429135</v>
+        <v>4407.846836220483</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2565,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>2529.125083773593</v>
+        <v>4472.003682614603</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2573,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>2566.048597363488</v>
+        <v>4537.291908099563</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2581,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>2603.622852246337</v>
+        <v>4603.730775550471</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>2641.859034310387</v>
+        <v>4671.340063875754</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>2680.768623552637</v>
+        <v>4740.140072027481</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>2720.36339575455</v>
+        <v>4810.151621964366</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>2760.6554235323</v>
+        <v>4881.396060508806</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>2801.657076734699</v>
+        <v>4953.895260050504</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>2843.381022156539</v>
+        <v>5027.671618039598</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>2885.840222534595</v>
+        <v>5102.748055211393</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>2929.047934796541</v>
+        <v>5179.148012490086</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>2973.017707526045</v>
+        <v>5256.89544650655</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>3017.763377612099</v>
+        <v>5336.014823673662</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>3063.299066045798</v>
+        <v>5416.531112754177</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>3109.639172830436</v>
+        <v>5498.469775860729</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>3156.798370966535</v>
+        <v>5581.856757820165</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>3204.791599475737</v>
+        <v>5666.718473838371</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>3253.634055424926</v>
+        <v>5753.081795397309</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>3303.3411849125</v>
+        <v>5840.974034316929</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>3353.928672978856</v>
+        <v>5930.422924914867</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>3405.412432398537</v>
+        <v>6021.456604188702</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>3457.808591319444</v>
+        <v>6114.103589959585</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>3511.133479705347</v>
+        <v>6208.392756899863</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>3565.403614544694</v>
+        <v>6304.353310379265</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>3620.635683785341</v>
+        <v>6402.014758058263</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>3676.846528956005</v>
+        <v>6501.406879159298</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>3734.053126436269</v>
+        <v>6602.559691348358</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>3792.272567339652</v>
+        <v>6705.503415164195</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>3851.522035967085</v>
+        <v>6810.268435919711</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>3911.818786802785</v>
+        <v>6916.885263026032</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>3973.180120013421</v>
+        <v>7025.384486670073</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>4035.623355419353</v>
+        <v>7135.796731790448</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>4099.165804907661</v>
+        <v>7248.152609298127</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>4163.824743261097</v>
+        <v>7362.48266449614</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>4229.617377374315</v>
+        <v>7478.817322647657</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>4296.560813834873</v>
+        <v>7597.186831652651</v>
       </c>
     </row>
     <row r="303">

--- a/Data/model_outputs_baseline/number_of_dwellings/i_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_SFH.xlsx
@@ -445,7 +445,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>72146.20652552132</v>
+        <v>73127.78756668488</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>86.91797402200143</v>
+        <v>88.10053149168851</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>88.32975701368245</v>
+        <v>89.53152241522915</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>89.77262702199036</v>
+        <v>90.99402330800383</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>91.24765437049973</v>
+        <v>92.48911905581265</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>92.7559528396061</v>
+        <v>94.01793859252589</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>94.2986809694663</v>
+        <v>95.58165622075157</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>95.87704335365112</v>
+        <v>97.18149292308854</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>97.49229191914408</v>
+        <v>98.8187176595406</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>99.14572718678023</v>
+        <v>100.4946486451038</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>100.8386995081586</v>
+        <v>102.2106546035077</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>102.5726102737348</v>
+        <v>103.9681559917448</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>104.3489130851893</v>
+        <v>105.7686261883892</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>106.1691148880189</v>
+        <v>107.6135926415973</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>108.0347770563617</v>
+        <v>109.5046379686931</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>109.9475164253198</v>
+        <v>111.4434010025351</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>111.9090062626182</v>
+        <v>113.4315777763953</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>113.9209771736359</v>
+        <v>115.4709224413044</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>115.9852179324488</v>
+        <v>117.5632481084005</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>118.1035762307934</v>
+        <v>119.7104276080831</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>120.2779593386891</v>
+        <v>121.9143941596237</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>122.5103346674311</v>
+        <v>124.177141941818</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>124.802730227905</v>
+        <v>126.5007265575364</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>127.1572349761351</v>
+        <v>128.8872653839736</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>129.5759990368632</v>
+        <v>131.3389377992695</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>132.0612337980676</v>
+        <v>133.8579852783135</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>134.6152118668629</v>
+        <v>136.4467113480447</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>137.240266878791</v>
+        <v>139.1074813941487</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>139.93879315223</v>
+        <v>141.8427223107638</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>142.7132451785448</v>
+        <v>144.654921983695</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>145.5661369403768</v>
+        <v>147.5466285994296</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>148.5000410493134</v>
+        <v>150.5204497710728</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>151.5175876945315</v>
+        <v>153.5790514726884</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>154.6214633947418</v>
+        <v>156.7251567742621</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>157.8144095450294</v>
+        <v>159.9615443687713</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>161.0992207515997</v>
+        <v>163.2910468842746</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>164.4787429461697</v>
+        <v>166.7165489726482</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>167.9558712741684</v>
+        <v>170.2409851690551</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>171.5335477492864</v>
+        <v>173.8673375145828</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>175.2147586686225</v>
+        <v>177.5986329362228</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>179.0025317822378</v>
+        <v>181.4379403779145</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>182.8999332134639</v>
+        <v>185.3883676789532</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>186.9100641232873</v>
+        <v>189.4530581929918</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>191.0360571171003</v>
+        <v>193.6351871459043</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>195.2810723892644</v>
+        <v>197.9379577278939</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>199.6482936033632</v>
+        <v>202.3645969176946</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>204.1409235076422</v>
+        <v>206.9183510383584</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>208.7621792830996</v>
+        <v>211.6024810420534</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>213.5152876257807</v>
+        <v>216.4202575254512</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>218.4034795643173</v>
+        <v>221.374955476757</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>223.4299850140268</v>
+        <v>226.4698487557143</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>228.5980270717489</v>
+        <v>231.7082043108203</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>233.9108160547456</v>
+        <v>237.0932761371231</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>239.371543290412</v>
+        <v>242.628298981438</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>244.9833746615926</v>
+        <v>248.3164817998456</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>250.7494439166324</v>
+        <v>254.1610009767226</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>256.6728457531669</v>
+        <v>260.1649933144344</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>262.7566286844535</v>
+        <v>266.3315488026093</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>269.003787701312</v>
+        <v>272.6637031802414</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>275.4172567418875</v>
+        <v>279.1644303030016</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>281.9999009829467</v>
+        <v>285.8366343296534</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>288.7545089681577</v>
+        <v>292.6831417432347</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>295.6837845910889</v>
+        <v>299.7066932249813</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>302.7903389484479</v>
+        <v>306.909935396726</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>310.0766820859603</v>
+        <v>314.2954124544768</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>317.5452146541385</v>
+        <v>321.8655577106574</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>325.1982194978783</v>
+        <v>329.622685069278</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>333.0378532020706</v>
+        <v>337.5689804565205</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>341.0661376168247</v>
+        <v>345.706493230659</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>349.2849513876571</v>
+        <v>354.037127597013</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>357.6960215176515</v>
+        <v>362.5626340553067</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>366.3009149871727</v>
+        <v>371.2846009053656</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>375.1010304608226</v>
+        <v>380.204445841242</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>384.0975901096035</v>
+        <v>389.3234076621151</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>393.2916315783616</v>
+        <v>398.6425381304481</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>402.6840001288018</v>
+        <v>408.1626940081052</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>412.2753409894167</v>
+        <v>417.8845293021978</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>422.0660919430625</v>
+        <v>427.8084877518117</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>432.0564761849525</v>
+        <v>437.9347955888294</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>442.2464954824412</v>
+        <v>448.2634546046513</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>452.6359236692292</v>
+        <v>458.7942355558854</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>463.2243005061736</v>
+        <v>469.5266719416317</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>474.0109259410058</v>
+        <v>480.4600541851011</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>484.9948547986573</v>
+        <v>491.5934242517003</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>496.174891934239</v>
+        <v>502.9255707360654</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>507.5495878785176</v>
+        <v>514.4550244482933</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>519.1172350081644</v>
+        <v>526.180054532085</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>530.8758642692238</v>
+        <v>538.098665143635</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>542.8232424814787</v>
+        <v>550.2085927193219</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>554.956870253775</v>
+        <v>562.5073038626699</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>567.2739805346155</v>
+        <v>574.9919938752225</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>579.7715378232184</v>
+        <v>587.6595859568675</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>592.4462380653677</v>
+        <v>600.5067311002706</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>605.2945092552102</v>
+        <v>613.5298087008593</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>618.3125127624213</v>
+        <v>626.7249279020461</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>631.496145403894</v>
+        <v>640.0879296951035</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>644.8410422749956</v>
+        <v>653.6143897889411</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>658.342580354596</v>
+        <v>667.2996222641823</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>671.9958828951851</v>
+        <v>681.1386840230107</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>685.7958246065818</v>
+        <v>695.126380043406</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>699.7370376413221</v>
+        <v>709.257269445966</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>713.8139183836553</v>
+        <v>723.5256723752697</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>728.0206350441712</v>
+        <v>737.9256776978333</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>742.351136059747</v>
+        <v>752.4511515163422</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>756.7991592916788</v>
+        <v>767.0957464929262</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>771.3582420176608</v>
+        <v>781.8529119770848</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>786.0217317048147</v>
+        <v>796.7159049252883</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>800.7827975525262</v>
+        <v>811.6778016008599</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>815.634442787956</v>
+        <v>826.7315100367717</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>830.569517694933</v>
+        <v>841.8697832418028</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>845.5807333549875</v>
+        <v>857.0852331285247</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>860.6606760741316</v>
+        <v>872.3703451363647</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>875.8018224689329</v>
+        <v>887.7174935229319</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>890.9965551796971</v>
+        <v>903.1189572909855</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>906.237179177744</v>
+        <v>918.5669367175773</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>921.5159386303116</v>
+        <v>934.0535704484111</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>936.8250342842797</v>
+        <v>949.5709531180794</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>952.1566413263852</v>
+        <v>965.1111534532747</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>967.5029276770108</v>
+        <v>980.6662328154734</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>982.8560726705824</v>
+        <v>996.2282641354883</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>998.208286074621</v>
+        <v>1011.789351191282</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>1013.551827396732</v>
+        <v>1027.34164817764</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>1028.879025427712</v>
+        <v>1042.877379515164</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>1044.182297966798</v>
+        <v>1058.388859843897</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>1059.454171674028</v>
+        <v>1073.868514145784</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>1074.687301992699</v>
+        <v>1089.308897938178</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>1089.874493085346</v>
+        <v>1104.702717481065</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>1105.008717723534</v>
+        <v>1120.04284993746</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>1120.083137074353</v>
+        <v>1135.322363429106</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>1135.091120321705</v>
+        <v>1150.534536924721</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>1150.026264065745</v>
+        <v>1165.672879903374</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>1164.882411439107</v>
+        <v>1180.731151730795</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>1179.653670880637</v>
+        <v>1195.703380688537</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>1194.334434510565</v>
+        <v>1210.583882599144</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>1208.919396045282</v>
+        <v>1225.367278984674</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>1223.403568199241</v>
+        <v>1240.048514705353</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>1237.782299515771</v>
+        <v>1254.622875019386</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>1252.051290573125</v>
+        <v>1269.086002009494</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>1266.206609515056</v>
+        <v>1283.433910324785</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>1280.244706853859</v>
+        <v>1297.663002185204</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>1294.162429498271</v>
+        <v>1311.770081600288</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>1307.957033961531</v>
+        <v>1325.752367756926</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>1321.626198704256</v>
+        <v>1339.607507530165</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>1335.168035574045</v>
+        <v>1353.333587078453</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>1348.581100301818</v>
+        <v>1366.929142482795</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>1361.864402023283</v>
+        <v>1380.39316939775</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>1375.017411791049</v>
+        <v>1393.725131679363</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>1388.040070052504</v>
+        <v>1406.924968964783</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>1400.932793067829</v>
+        <v>1419.993103177595</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>1413.696478246479</v>
+        <v>1432.930443936908</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>1426.332508387743</v>
+        <v>1445.738392855603</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>1438.842754809194</v>
+        <v>1458.41884671136</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>1451.229579356473</v>
+        <v>1470.974199483772</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>1463.495835286659</v>
+        <v>1483.407343249743</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>1475.64486702472</v>
+        <v>1495.721667936621</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>1487.680508796638</v>
+        <v>1507.921059936728</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>1499.607082142326</v>
+        <v>1520.009899586439</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>1511.429392322581</v>
+        <v>1531.993057524249</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>1523.152723630801</v>
+        <v>1543.875889938703</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>1534.782833629498</v>
+        <v>1555.664232726498</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>1546.325946332311</v>
+        <v>1567.36439458173</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>1557.788744357053</v>
+        <v>1578.983149042183</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>1569.178360079125</v>
+        <v>1590.527725522378</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>1580.502365816006</v>
+        <v>1602.005799364523</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>1591.768763080469</v>
+        <v>1613.425480945509</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>1602.98597094011</v>
+        <v>1624.79530387807</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>1614.16281352433</v>
+        <v>1636.12421234779</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>1625.308506724152</v>
+        <v>1647.421547631963</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>1636.432644132053</v>
+        <v>1658.697033848136</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>1647.545182270355</v>
+        <v>1669.960762981517</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>1658.656425160807</v>
+        <v>1681.223179244628</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>1669.777008288791</v>
+        <v>1692.495062823332</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>1680.917882017866</v>
+        <v>1703.787513065728</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>1692.090294511222</v>
+        <v>1715.111931171238</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>1703.305774219328</v>
+        <v>1726.480002439999</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>1714.576111992993</v>
+        <v>1737.903678142558</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1725.913342881941</v>
+        <v>1749.395157070811</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1737.329727680713</v>
+        <v>1760.966866832831</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1748.837734282589</v>
+        <v>1772.6314449531</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1760.450018904032</v>
+        <v>1784.401719841502</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1772.179407240948</v>
+        <v>1796.290691693205</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1784.038875617741</v>
+        <v>1808.311513381248</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1796.041532190132</v>
+        <v>1820.477471403603</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1808.200598262818</v>
+        <v>1832.801966946666</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1820.529389779436</v>
+        <v>1845.298497123374</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1833.04129904383</v>
+        <v>1857.980636445787</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1845.749776729877</v>
+        <v>1870.862018590148</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1858.668314232687</v>
+        <v>1883.956318507962</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1871.810426417901</v>
+        <v>1897.277234940594</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1885.189634817481</v>
+        <v>1910.838473386426</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1898.819451322633</v>
+        <v>1924.653729571921</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1912.713362422963</v>
+        <v>1938.736673476336</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1926.884814033003</v>
+        <v>1953.100933951819</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1941.347196951676</v>
+        <v>1967.760083985032</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1956.113832994074</v>
+        <v>1982.727626640252</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1971.197961831813</v>
+        <v>1998.016981720682</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1986.612728577298</v>
+        <v>2013.641473183792</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>2002.371172144026</v>
+        <v>2029.614317343264</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>2018.486214410505</v>
+        <v>2045.948611885477</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>2034.970650215552</v>
+        <v>2062.657325728689</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>2051.837138206784</v>
+        <v>2079.753289747013</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>2069.098654271396</v>
+        <v>2097.249656370327</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>2086.766688453155</v>
+        <v>2115.158071969524</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>2104.853859254107</v>
+        <v>2133.491326726952</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>2123.372206994107</v>
+        <v>2152.26162477634</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>2142.333603459574</v>
+        <v>2171.48099942501</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>2161.749748192535</v>
+        <v>2191.161309392433</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>2181.632165713348</v>
+        <v>2211.314235995162</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>2201.99220367616</v>
+        <v>2231.951281277197</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>2222.841031954743</v>
+        <v>2253.083767083379</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>2244.189642653561</v>
+        <v>2274.722835070617</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>2266.048851035418</v>
+        <v>2296.879447648144</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>2288.429297356213</v>
+        <v>2319.56438983725</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>2311.341449595168</v>
+        <v>2342.788272038639</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>2334.795607063458</v>
+        <v>2366.561533690171</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>2358.801904876321</v>
+        <v>2390.894447799808</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>2383.370319269713</v>
+        <v>2415.797126334607</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>2408.510673739459</v>
+        <v>2441.279526443397</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>2434.232645981664</v>
+        <v>2467.351457491618</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>2460.545775612186</v>
+        <v>2494.022588885822</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>2487.459472632823</v>
+        <v>2521.302458655038</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>2514.983026627403</v>
+        <v>2549.200482771993</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>2543.125616649525</v>
+        <v>2577.725965175369</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>2571.89632178169</v>
+        <v>2606.888108472598</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>2601.304132325108</v>
+        <v>2636.696025281912</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>2631.357961601836</v>
+        <v>2667.158750195058</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>2662.066658324082</v>
+        <v>2698.285252314886</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2693.439019507172</v>
+        <v>2730.084448344005</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2725.483803888084</v>
+        <v>2762.565216185881</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2758.209745819362</v>
+        <v>2795.736409027788</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2791.625569598428</v>
+        <v>2829.606869865073</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2825.740004203809</v>
+        <v>2864.185446437874</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>2860.561798401238</v>
+        <v>2899.481006542751</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>2896.099736181668</v>
+        <v>2935.502453680738</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>2932.362652501576</v>
+        <v>2972.258743011801</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>2969.359449286024</v>
+        <v>3009.758897575629</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>3007.099111660896</v>
+        <v>3048.012024744718</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>3045.590724380265</v>
+        <v>3087.027332875235</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>3084.843488412651</v>
+        <v>3126.814148118945</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>3124.866737649994</v>
+        <v>3167.381931359517</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>3165.669955709199</v>
+        <v>3208.740295242658</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>3207.262792786843</v>
+        <v>3250.899021260133</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>3249.655082533777</v>
+        <v>3293.868076853964</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>3292.856858918788</v>
+        <v>3337.657632509519</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>3336.87837304133</v>
+        <v>3382.278078796995</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>3381.730109865349</v>
+        <v>3427.740043332904</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>3427.422804835507</v>
+        <v>3474.054407622385</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>3473.967460344575</v>
+        <v>3521.232323750623</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>3521.375362017244</v>
+        <v>3569.285230888227</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>3569.658094777746</v>
+        <v>3618.224871577443</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>3618.827558663922</v>
+        <v>3668.06330776139</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>3668.895984358903</v>
+        <v>3718.812936527052</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>3719.875948402542</v>
+        <v>3770.486505523665</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>3771.780388047069</v>
+        <v>3823.097128020499</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>3824.622615726662</v>
+        <v>3876.658297573283</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>3878.41633310245</v>
+        <v>3931.183902260306</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>3933.175644646971</v>
+        <v>3986.688238451692</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>3988.915070733228</v>
+        <v>4043.186024076537</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>4045.649560193193</v>
+        <v>4100.692411352285</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>4103.394502302222</v>
+        <v>4159.222998932183</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>4162.165738160065</v>
+        <v>4218.793843441154</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>4221.97957142033</v>
+        <v>4279.421470351219</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>4282.852778332415</v>
+        <v>4341.122884160067</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>4344.802617060373</v>
+        <v>4403.915577836705</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>4407.846836220483</v>
+        <v>4467.817541475184</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2565,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>4472.003682614603</v>
+        <v>4532.847270133169</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2573,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>4537.291908099563</v>
+        <v>4599.023770794794</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2581,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>4603.730775550471</v>
+        <v>4666.366568415103</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>4671.340063875754</v>
+        <v>4734.895711003315</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>4740.140072027481</v>
+        <v>4804.63177368772</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>4810.151621964366</v>
+        <v>4875.595861718984</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>4881.396060508806</v>
+        <v>4947.809612352463</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>4953.895260050504</v>
+        <v>5021.295195561395</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>5027.671618039598</v>
+        <v>5096.07531352313</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>5102.748055211393</v>
+        <v>5172.173198819711</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>5179.148012490086</v>
+        <v>5249.612611299475</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>5256.89544650655</v>
+        <v>5328.41783353385</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>5336.014823673662</v>
+        <v>5408.61366481208</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>5416.531112754177</v>
+        <v>5490.225413607975</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>5498.469775860729</v>
+        <v>5573.278888457473</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>5581.856757820165</v>
+        <v>5657.800387178262</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>5666.718473838371</v>
+        <v>5743.816684366785</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>5753.081795397309</v>
+        <v>5831.355017103395</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>5840.974034316929</v>
+        <v>5920.443068797432</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>5930.422924914867</v>
+        <v>6011.108951104185</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>6021.456604188702</v>
+        <v>6103.381183837528</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>6114.103589959585</v>
+        <v>6197.288672816178</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>6208.392756899863</v>
+        <v>6292.860685565168</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>6304.353310379265</v>
+        <v>6390.126824806193</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>6402.014758058263</v>
+        <v>6489.116999664499</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>6501.406879159298</v>
+        <v>6589.86139452201</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>6602.559691348358</v>
+        <v>6692.390435448336</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>6705.503415164195</v>
+        <v>6796.73475414602</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>6810.268435919711</v>
+        <v>6902.925149333584</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>6916.885263026032</v>
+        <v>7010.992545516181</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>7025.384486670073</v>
+        <v>7120.967949073747</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>7135.796731790448</v>
+        <v>7232.882401610726</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>7248.152609298127</v>
+        <v>7346.766930513067</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>7362.48266449614</v>
+        <v>7462.652496666155</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>7478.817322647657</v>
+        <v>7580.569939282318</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>7597.186831652651</v>
+        <v>7700.549917797584</v>
       </c>
     </row>
     <row r="303">
@@ -2853,7 +2853,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>4364.672024856191</v>
+        <v>5402.825641560344</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>4433.967812538945</v>
+        <v>5488.6036923308</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>4504.464771453842</v>
+        <v>5575.868617417579</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>4576.179249541552</v>
+        <v>5664.640653180371</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>4649.127307323627</v>
+        <v>5754.93968019604</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>4723.324675429556</v>
+        <v>5846.785170683315</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>4798.78671045367</v>
+        <v>5940.196133860106</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>4875.528349153838</v>
+        <v>6035.191059248179</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>4953.564061012948</v>
+        <v>6131.787857951217</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>5032.907799201491</v>
+        <v>6230.003801953661</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>5113.572949973648</v>
+        <v>6329.855461480473</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>5195.572280541088</v>
+        <v>6431.358640472517</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>5278.917885486871</v>
+        <v>6534.528310254813</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>5363.62113177951</v>
+        <v>6639.37854147198</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>5449.692602459963</v>
+        <v>6745.922434380975</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>5537.142039093213</v>
+        <v>6854.172047614559</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>5625.978283070373</v>
+        <v>6964.138325521895</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>5716.209215872871</v>
+        <v>7075.831024224338</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>5807.841698420432</v>
+        <v>7189.258636537112</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>5900.881509620703</v>
+        <v>7304.428315902725</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>5995.333284275597</v>
+        <v>7421.345799528121</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>6091.200450484396</v>
+        <v>7540.015330898852</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>6188.485166725873</v>
+        <v>7660.439581895967</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>6287.188258782327</v>
+        <v>7782.619574717185</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>6387.309156707593</v>
+        <v>7906.554603852507</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>6488.845832041718</v>
+        <v>8032.242158365168</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>6591.794735485224</v>
+        <v>8159.677844741494</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>6696.150735266089</v>
+        <v>8288.855310598232</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>6801.907056440094</v>
+        <v>8419.766169545264</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>6909.055221378264</v>
+        <v>8552.399927517756</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>7017.584991702349</v>
+        <v>8686.743910900777</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>7127.48431195016</v>
+        <v>8822.78319679523</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>7238.739255250446</v>
+        <v>8960.500545771281</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>7351.333971305094</v>
+        <v>9099.876337477943</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>7465.250636983444</v>
+        <v>9240.888509486063</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>7580.469409836267</v>
+        <v>9383.512499745413</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>7696.968384846134</v>
+        <v>9527.721193047986</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>7814.723554746885</v>
+        <v>9673.484871909295</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>7933.708774225192</v>
+        <v>9820.771172255141</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>8053.895728341571</v>
+        <v>9969.545044331453</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>8175.253905503288</v>
+        <v>10119.76871924869</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>8297.750575312732</v>
+        <v>10271.40168156136</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>8421.350771628751</v>
+        <v>10424.40064830047</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>8546.017281150587</v>
+        <v>10578.71955484204</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>8671.710637865279</v>
+        <v>10734.30954803387</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>8798.389123643121</v>
+        <v>10891.11898693257</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>8926.008775309976</v>
+        <v>11049.0934515581</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>9054.523398459498</v>
+        <v>11208.17575999125</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>9183.88458830691</v>
+        <v>11368.30599418757</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>9314.041757824067</v>
+        <v>11529.42153480448</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>9444.942173412921</v>
+        <v>11691.45710535979</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>9576.530998328955</v>
+        <v>11854.34482598356</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>9708.751344064229</v>
+        <v>12018.01427702279</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>9841.544329858893</v>
+        <v>12182.392572708</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>9974.849150494243</v>
+        <v>12347.40444507108</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3293,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>9648.422021059796</v>
+        <v>11950.56968754657</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3301,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>9776.454292890461</v>
+        <v>12109.15091289384</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>9904.790734282322</v>
+        <v>12268.1088837369</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>10033.36676928167</v>
+        <v>12427.36361607077</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>10162.11643019076</v>
+        <v>12586.8334020714</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>10290.97247105825</v>
+        <v>12746.43495066525</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>10419.86648923632</v>
+        <v>12906.08353809051</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>10548.72905486466</v>
+        <v>13065.69316827627</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>10677.48984813675</v>
+        <v>13225.17674286113</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>10806.07780416475</v>
+        <v>13384.44624062332</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>10934.42126518825</v>
+        <v>13543.41290600699</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>11062.44813988589</v>
+        <v>13701.98744644618</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>11190.08606945521</v>
+        <v>13860.08023807189</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>11317.26260013278</v>
+        <v>14017.60153939612</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>11443.90536176952</v>
+        <v>14174.4617124959</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>12525.39438235054</v>
+        <v>15282.08008034238</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>12661.10600145088</v>
+        <v>15447.66016250305</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>12796.0072978233</v>
+        <v>15612.25157984079</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>12930.02233462394</v>
+        <v>15775.76168274369</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>13063.07631327711</v>
+        <v>15938.09921038681</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>13195.09579534989</v>
+        <v>16099.17456143878</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>13326.00892708885</v>
+        <v>16258.90006801622</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>13455.745665947</v>
+        <v>16417.19027206653</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>13584.2380084111</v>
+        <v>16573.96220333713</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>13711.42021841431</v>
+        <v>16729.13565805907</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>14792.39797354074</v>
+        <v>18236.11612827523</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>14925.35838848857</v>
+        <v>18400.03015842703</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>15056.7243914057</v>
+        <v>18561.97859226374</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>15186.43783146891</v>
+        <v>18721.88974126214</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>15314.44418470614</v>
+        <v>18879.69638809295</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>15440.69278538259</v>
+        <v>19035.33607187418</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>15565.13705245964</v>
+        <v>19188.75136735057</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>15687.73471034337</v>
+        <v>19339.89015703304</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>15808.44800313778</v>
+        <v>19488.7058953307</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>15927.24390164987</v>
+        <v>19635.15786374747</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>12477.9900996606</v>
+        <v>16696.77380021679</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3581,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>12567.33733088284</v>
+        <v>16816.32915308039</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3589,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>12655.13985136096</v>
+        <v>16933.81753156147</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>12741.38815470402</v>
+        <v>17049.22621517718</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>12826.07711111212</v>
+        <v>17162.54833975243</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>12909.20608282247</v>
+        <v>17273.7830518981</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>12990.77903017414</v>
+        <v>17382.93565093605</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>13070.80460779751</v>
+        <v>17490.01771761003</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>13149.29625050741</v>
+        <v>17595.04722901911</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>13226.27224842314</v>
+        <v>17698.04865913564</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>9407.887849263001</v>
+        <v>12249.60800134062</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>9460.239234968991</v>
+        <v>12317.77249941929</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>9511.578478675992</v>
+        <v>12384.61913073253</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>9561.932621245875</v>
+        <v>12450.18310402894</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>9611.332278873711</v>
+        <v>12514.50428334538</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>9659.811644516838</v>
+        <v>12577.62718986775</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>9707.408479760727</v>
+        <v>12639.60099133986</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>9754.164096812417</v>
+        <v>12700.47947861784</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>9800.123330391727</v>
+        <v>12760.32102907092</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>9845.334499201914</v>
+        <v>12819.18855641401</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>9991.874344193982</v>
+        <v>13385.85476288793</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>10036.20062513969</v>
+        <v>13445.23753117334</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>10079.93814241664</v>
+        <v>13503.83154805054</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>10123.14918343805</v>
+        <v>13561.72025835062</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>10165.89919311108</v>
+        <v>13618.99133691734</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>10208.25666562707</v>
+        <v>13675.7365436414</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>10250.2930235946</v>
+        <v>13732.05156153802</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>10292.08248417142</v>
+        <v>13788.03581740748</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>10333.70191185926</v>
+        <v>13843.79228462803</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>10375.23065760291</v>
+        <v>13899.42726760121</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>10416.75038387236</v>
+        <v>13955.05016741886</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>10458.34487535952</v>
+        <v>14010.77322825848</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>10500.09983499424</v>
+        <v>14066.71126411112</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>10542.10266492985</v>
+        <v>14122.98136537346</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>10584.44223223253</v>
+        <v>14179.70258494789</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>10627.20861900341</v>
+        <v>14236.99560348762</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>10670.49285669636</v>
+        <v>14294.98237346905</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>10714.38664446927</v>
+        <v>14353.78574187436</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>10758.98205143419</v>
+        <v>14413.5290513037</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3885,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>10804.37120274763</v>
+        <v>14474.33571943854</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3893,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>10850.64594957725</v>
+        <v>14536.3287969046</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>10897.89752303819</v>
+        <v>14599.6305036593</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>10946.21617233962</v>
+        <v>14664.36174422617</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>10995.69078744448</v>
+        <v>14730.64160218177</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>11046.40850673984</v>
+        <v>14798.58681456198</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>11098.45431029006</v>
+        <v>14868.31122695372</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>11151.91059947101</v>
+        <v>14939.92523034188</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>11206.85676388627</v>
+        <v>15013.53518091815</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>11263.36873671125</v>
+        <v>15089.24280438712</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>11321.51853976431</v>
+        <v>15167.14458650982</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>11381.37381981988</v>
+        <v>15247.33115191447</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>11442.99737791391</v>
+        <v>15329.88663351923</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>11506.44669359043</v>
+        <v>15414.88803517756</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>11571.77344628323</v>
+        <v>15502.40459048583</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>11639.02303625528</v>
+        <v>15592.49712099815</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>11708.23410775656</v>
+        <v>15685.2173974134</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>11779.43807731464</v>
+        <v>15780.60750763825</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>11852.65867024238</v>
+        <v>15878.69923585868</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>11927.9114687628</v>
+        <v>15979.51345717447</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>12005.20347527854</v>
+        <v>16083.05955252275</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/i_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_SFH.xlsx
@@ -445,7 +445,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>73127.78756668488</v>
+        <v>72931.47135845218</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>88.10053149168851</v>
+        <v>87.8640199977511</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>89.53152241522915</v>
+        <v>89.29116933491981</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>90.99402330800383</v>
+        <v>90.74974405080114</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>92.48911905581265</v>
+        <v>92.24082611875008</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>94.01793859252589</v>
+        <v>93.76554144194195</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>95.58165622075157</v>
+        <v>95.32506117049452</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>97.18149292308854</v>
+        <v>96.92060300920107</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>98.8187176595406</v>
+        <v>98.5534325114613</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>100.4946486451038</v>
+        <v>100.2248643534391</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>102.2106546035077</v>
+        <v>101.9362635844379</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>103.9681559917448</v>
+        <v>103.6890468481428</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>105.7686261883892</v>
+        <v>105.4846835677492</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>107.6135926415973</v>
+        <v>107.3246970908816</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>109.5046379686931</v>
+        <v>109.2106657862268</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>111.4434010025351</v>
+        <v>111.144224087092</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>113.4315777763953</v>
+        <v>113.1270634736399</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>115.4709224413044</v>
+        <v>115.1609333877708</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>117.5632481084005</v>
+        <v>117.2476420732101</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>119.7104276080831</v>
+        <v>119.3890573326251</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>121.9143941596237</v>
+        <v>121.5871071954368</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>124.177141941818</v>
+        <v>123.8437804869406</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>126.5007265575364</v>
+        <v>126.1611272916101</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>128.8872653839736</v>
+        <v>128.5412593024059</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>131.3389377992695</v>
+        <v>130.9863500467883</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>133.8579852783135</v>
+        <v>133.4986349822643</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>136.4467113480447</v>
+        <v>136.0804114518083</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>139.1074813941487</v>
+        <v>138.7340384910772</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>141.8427223107638</v>
+        <v>141.461936479057</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>144.654921983695</v>
+        <v>144.266586622665</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>147.5466285994296</v>
+        <v>147.150530267619</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>150.5204497710728</v>
+        <v>150.1163680267209</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>153.5790514726884</v>
+        <v>153.166758717057</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>156.7251567742621</v>
+        <v>156.3044180983581</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>159.9615443687713</v>
+        <v>159.532117404023</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>163.2910468842746</v>
+        <v>162.8526816577396</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>166.7165489726482</v>
+        <v>166.2689877673525</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>170.2409851690551</v>
+        <v>169.7839623900778</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>173.8673375145828</v>
+        <v>173.4005795615236</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>177.5986329362228</v>
+        <v>177.1218580827027</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>181.4379403779145</v>
+        <v>180.9508586587792</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>185.3883676789532</v>
+        <v>184.8906807858553</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>189.4530581929918</v>
+        <v>188.944459379051</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>193.6351871459043</v>
+        <v>193.1153611401435</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>197.9379577278939</v>
+        <v>197.406580660168</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>202.3645969176946</v>
+        <v>201.8213362548283</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>206.9183510383584</v>
+        <v>206.3628655322151</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>211.6024810420534</v>
+        <v>211.0344206902627</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>216.4202575254512</v>
+        <v>215.8392635455171</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>221.374955476757</v>
+        <v>220.7806602942691</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>226.4698487557143</v>
+        <v>225.8618760073768</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>231.7082043108203</v>
+        <v>231.0861688630061</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>237.0932761371231</v>
+        <v>236.4567841206476</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>242.628298981438</v>
+        <v>241.9769478432329</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>248.3164817998456</v>
+        <v>247.649860372195</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>254.1610009767226</v>
+        <v>253.4786895647046</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>260.1649933144344</v>
+        <v>259.4665638021809</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>266.3315488026093</v>
+        <v>265.6165647789782</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>272.6637031802414</v>
+        <v>271.9317200844555</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>279.1644303030016</v>
+        <v>278.4149955907788</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>285.8366343296534</v>
+        <v>285.0692876603121</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>292.6831417432347</v>
+        <v>291.8974151882193</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>299.7066932249813</v>
+        <v>298.9021114982028</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>306.909935396726</v>
+        <v>306.0860161070704</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>314.2954124544768</v>
+        <v>313.4516663807735</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>321.8655577106574</v>
+        <v>321.0014890993536</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>329.622685069278</v>
+        <v>328.7377919549981</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>337.5689804565205</v>
+        <v>336.6627550056305</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>345.706493230659</v>
+        <v>344.7784221078921</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>354.037127597013</v>
+        <v>353.0866923551418</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>362.5626340553067</v>
+        <v>361.5893115477757</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>371.2846009053656</v>
+        <v>370.287863721727</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>380.204445841242</v>
+        <v>379.1837627651581</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>389.3234076621151</v>
+        <v>388.2782441516128</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>398.6425381304481</v>
+        <v>397.5723568200308</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>408.1626940081052</v>
+        <v>407.0669552322446</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>417.8845293021978</v>
+        <v>416.7626916396417</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>427.8084877518117</v>
+        <v>426.6600085900619</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>437.9347955888294</v>
+        <v>436.759131708054</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>448.2634546046513</v>
+        <v>447.0600627802093</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>458.7942355558854</v>
+        <v>457.5625731785541</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>469.5266719416317</v>
+        <v>468.2661976545401</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>480.4600541851011</v>
+        <v>479.170228536282</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>491.5934242517003</v>
+        <v>490.2737103610917</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>502.9255707360654</v>
+        <v>501.5754349757001</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>514.4550244482933</v>
+        <v>513.0739371343382</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>526.180054532085</v>
+        <v>524.7674906273008</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>538.098665143635</v>
+        <v>536.6541049687528</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>550.2085927193219</v>
+        <v>548.7315226717534</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>562.5073038626699</v>
+        <v>560.9972171408911</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>574.9919938752225</v>
+        <v>573.4483912071012</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>587.6595859568675</v>
+        <v>586.0819763301378</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>600.5067311002706</v>
+        <v>598.89463249329</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>613.5298087008593</v>
+        <v>611.8827488117296</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>626.7249279020461</v>
+        <v>625.0424448741212</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>640.0879296951035</v>
+        <v>638.3695728368617</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>653.6143897889411</v>
+        <v>651.8597202861521</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>667.2996222641823</v>
+        <v>665.5082138822651</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>681.1386840230107</v>
+        <v>679.3101237974456</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>695.126380043406</v>
+        <v>693.2602689560413</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>709.257269445966</v>
+        <v>707.3532230850373</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>723.5256723752697</v>
+        <v>721.5833215769468</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>737.9256776978333</v>
+        <v>735.944669167101</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>752.4511515163422</v>
+        <v>750.4311484250231</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>767.0957464929262</v>
+        <v>765.0364290526768</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>781.8529119770848</v>
+        <v>779.7539779852001</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>796.7159049252883</v>
+        <v>794.5770702811936</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>811.6778016008599</v>
+        <v>809.4988007911932</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>826.7315100367717</v>
+        <v>824.5120965870087</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>841.8697832418028</v>
+        <v>839.6097301324289</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>857.0852331285247</v>
+        <v>854.7843331738173</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>872.3703451363647</v>
+        <v>870.0284113239181</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>887.7174935229319</v>
+        <v>885.3343593121322</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>903.1189572909855</v>
+        <v>900.6944768687279</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>918.5669367175773</v>
+        <v>916.1009852096107</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>934.0535704484111</v>
+        <v>931.5460440847912</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>949.5709531180794</v>
+        <v>947.0217693513196</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>965.1111534532747</v>
+        <v>962.520251027897</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>980.6662328154734</v>
+        <v>978.0335717877811</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>996.2282641354883</v>
+        <v>993.5538258425072</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>1011.789351191282</v>
+        <v>1009.07313816795</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>1027.34164817764</v>
+        <v>1024.583684021459</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>1042.877379515164</v>
+        <v>1040.077708697673</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>1058.388859843897</v>
+        <v>1055.547547468477</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>1073.868514145784</v>
+        <v>1070.985645651433</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>1089.308897938178</v>
+        <v>1086.384578749082</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>1104.702717481065</v>
+        <v>1101.737072601921</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>1120.04284993746</v>
+        <v>1117.036023494675</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>1135.322363429106</v>
+        <v>1132.274518158156</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>1150.534536924721</v>
+        <v>1147.445853604118</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>1165.672879903374</v>
+        <v>1162.543556735849</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>1180.731151730795</v>
+        <v>1177.561403672458</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>1195.703380688537</v>
+        <v>1192.493438726957</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>1210.583882599144</v>
+        <v>1207.333992981428</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>1225.367278984674</v>
+        <v>1222.077702396795</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>1240.048514705353</v>
+        <v>1236.719525404131</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>1254.622875019386</v>
+        <v>1251.254759918663</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>1269.086002009494</v>
+        <v>1265.67905972222</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>1283.433910324785</v>
+        <v>1279.988450162839</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>1297.663002185204</v>
+        <v>1294.179343118935</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>1311.770081600288</v>
+        <v>1308.248551179884</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>1325.752367756926</v>
+        <v>1322.193300997847</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>1339.607507530165</v>
+        <v>1336.011245764983</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>1353.333587078453</v>
+        <v>1349.700476777572</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>1366.929142482795</v>
+        <v>1363.259534046599</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>1380.39316939775</v>
+        <v>1376.687415922856</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>1393.725131679363</v>
+        <v>1389.9835877017</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>1406.924968964783</v>
+        <v>1403.147989182327</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>1419.993103177595</v>
+        <v>1416.181041155642</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>1432.930443936908</v>
+        <v>1429.083650798822</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>1445.738392855603</v>
+        <v>1441.857215962032</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>1458.41884671136</v>
+        <v>1454.503628330927</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>1470.974199483772</v>
+        <v>1467.025275458312</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>1483.407343249743</v>
+        <v>1479.425041657126</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>1495.721667936621</v>
+        <v>1491.706307754241</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>1507.921059936728</v>
+        <v>1503.87294970871</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>1520.009899586439</v>
+        <v>1515.929336097617</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>1531.993057524249</v>
+        <v>1527.880324483915</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>1543.875889938703</v>
+        <v>1539.731256677123</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>1555.664232726498</v>
+        <v>1551.487952907099</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>1567.36439458173</v>
+        <v>1563.156704931846</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>1578.983149042183</v>
+        <v>1574.744268105157</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>1590.527725522378</v>
+        <v>1586.257852433728</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>1602.005799364523</v>
+        <v>1597.70511265482</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>1613.425480945509</v>
+        <v>1609.094137372501</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>1624.79530387807</v>
+        <v>1620.433437290478</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>1636.12421234779</v>
+        <v>1631.731932583099</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>1647.421547631963</v>
+        <v>1642.998939450401</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>1658.697033848136</v>
+        <v>1654.244155904919</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>1669.960762981517</v>
+        <v>1665.477646839284</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>1681.223179244628</v>
+        <v>1676.709828427864</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>1692.495062823332</v>
+        <v>1687.951451916424</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>1703.787513065728</v>
+        <v>1699.213586856155</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>1715.111931171238</v>
+        <v>1710.507603839235</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>1726.480002439999</v>
+        <v>1721.845156795865</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>1737.903678142558</v>
+        <v>1733.238164912645</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1749.395157070811</v>
+        <v>1744.698794233037</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1760.966866832831</v>
+        <v>1756.239439002408</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1772.6314449531</v>
+        <v>1767.872702818998</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1784.401719841502</v>
+        <v>1779.611379654008</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1796.290691693205</v>
+        <v>1791.468434802754</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1808.311513381248</v>
+        <v>1803.456985828547</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1820.477471403603</v>
+        <v>1815.590283560909</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1832.801966946666</v>
+        <v>1827.881693209897</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1845.298497123374</v>
+        <v>1840.344675654587</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1857.980636445787</v>
+        <v>1852.992768965395</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1870.862018590148</v>
+        <v>1865.839570218094</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1883.956318507962</v>
+        <v>1878.898717652907</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1897.277234940594</v>
+        <v>1892.183873236055</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1910.838473386426</v>
+        <v>1905.708705672637</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1924.653729571921</v>
+        <v>1919.486873922063</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1938.736673476336</v>
+        <v>1933.532011265661</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1953.100933951819</v>
+        <v>1947.857709968056</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1967.760083985032</v>
+        <v>1962.477506578361</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1982.727626640252</v>
+        <v>1977.404867911016</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1998.016981720682</v>
+        <v>1992.653177742908</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>2013.641473183792</v>
+        <v>2008.235724262493</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>2029.614317343264</v>
+        <v>2024.165688303417</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>2045.948611885477</v>
+        <v>2040.456132390483</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>2062.657325728689</v>
+        <v>2057.119990626061</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>2079.753289747013</v>
+        <v>2074.170059438967</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>2097.249656370327</v>
+        <v>2091.619455950541</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>2115.158071969524</v>
+        <v>2109.47979526625</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>2133.491326726952</v>
+        <v>2127.763833232383</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>2152.26162477634</v>
+        <v>2146.483741219894</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>2171.48099942501</v>
+        <v>2165.651520231923</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>2191.161309392433</v>
+        <v>2185.278997152453</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>2211.314235995162</v>
+        <v>2205.377821938799</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>2231.951281277197</v>
+        <v>2225.95946575699</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>2253.083767083379</v>
+        <v>2247.035220057652</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>2274.722835070617</v>
+        <v>2268.616196587206</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>2296.879447648144</v>
+        <v>2290.713328325599</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>2319.56438983725</v>
+        <v>2313.337371341042</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>2342.788272038639</v>
+        <v>2336.498907549945</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>2366.561533690171</v>
+        <v>2360.208348364829</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>2390.894447799808</v>
+        <v>2384.475939215111</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>2415.797126334607</v>
+        <v>2409.311764921628</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>2441.279526443397</v>
+        <v>2434.725755902609</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>2467.351457491618</v>
+        <v>2460.727695189627</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>2494.022588885822</v>
+        <v>2487.327226231095</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>2521.302458655038</v>
+        <v>2514.533861450595</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>2549.200482771993</v>
+        <v>2542.356991543075</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>2577.725965175369</v>
+        <v>2570.805895470201</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>2606.888108472598</v>
+        <v>2599.889751134416</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>2636.696025281912</v>
+        <v>2629.617646690552</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>2667.158750195058</v>
+        <v>2659.998592476414</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>2698.285252314886</v>
+        <v>2691.041533516725</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2730.084448344005</v>
+        <v>2722.755362576638</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2762.565216185881</v>
+        <v>2755.148933726322</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2795.736409027788</v>
+        <v>2788.231076386103</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2829.606869865073</v>
+        <v>2822.010609811744</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2864.185446437874</v>
+        <v>2856.496357991061</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>2899.481006542751</v>
+        <v>2891.697164914449</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>2935.502453680738</v>
+        <v>2927.621910180924</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>2972.258743011801</v>
+        <v>2964.279524909757</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>3009.758897575629</v>
+        <v>3001.679007917709</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>3048.012024744718</v>
+        <v>3039.829442127954</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>3087.027332875235</v>
+        <v>3078.740011176241</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>3126.814148118945</v>
+        <v>3118.420016177687</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>3167.381931359517</v>
+        <v>3158.878892617613</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>3208.740295242658</v>
+        <v>3200.126227335966</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>3250.899021260133</v>
+        <v>3242.171775565475</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>3293.868076853964</v>
+        <v>3285.025477989927</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>3337.657632509519</v>
+        <v>3328.697477791373</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>3382.278078796995</v>
+        <v>3373.198137645862</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>3427.740043332904</v>
+        <v>3418.538056639393</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>3474.054407622385</v>
+        <v>3464.728087065009</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>3521.232323750623</v>
+        <v>3511.779351069414</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>3569.285230888227</v>
+        <v>3559.703257114031</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>3618.224871577443</v>
+        <v>3608.511516217503</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>3668.06330776139</v>
+        <v>3658.216157941897</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>3718.812936527052</v>
+        <v>3708.829546093422</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>3770.486505523665</v>
+        <v>3760.364394099441</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>3823.097128020499</v>
+        <v>3812.833780025813</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>3876.658297573283</v>
+        <v>3866.251161203959</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>3931.183902260306</v>
+        <v>3920.630388428735</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>3986.688238451692</v>
+        <v>3975.985719690748</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>4043.186024076537</v>
+        <v>4032.331833407875</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>4100.692411352285</v>
+        <v>4089.683841120466</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>4159.222998932183</v>
+        <v>4148.057299606191</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>4218.793843441154</v>
+        <v>4207.468222384937</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>4279.421470351219</v>
+        <v>4267.933090565041</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>4341.122884160067</v>
+        <v>4329.468862994537</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>4403.915577836705</v>
+        <v>4392.092985681439</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>4467.817541475184</v>
+        <v>4455.823400424244</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2565,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>4532.847270133169</v>
+        <v>4520.678552629456</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2573,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>4599.023770794794</v>
+        <v>4586.677398255749</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2581,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>4666.366568415103</v>
+        <v>4653.839409842177</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>4734.895711003315</v>
+        <v>4722.184581577803</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>4804.63177368772</v>
+        <v>4791.733433355673</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>4875.595861718984</v>
+        <v>4862.50701376806</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>4947.809612352463</v>
+        <v>4934.526901983731</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>5021.295195561395</v>
+        <v>5007.815208459218</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>5096.07531352313</v>
+        <v>5082.394574426424</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>5172.173198819711</v>
+        <v>5158.288170098048</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>5249.612611299475</v>
+        <v>5235.519691537597</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>5328.41783353385</v>
+        <v>5314.11335612839</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>5408.61366481208</v>
+        <v>5394.093896584397</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>5490.225413607975</v>
+        <v>5475.486553437216</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>5573.278888457473</v>
+        <v>5558.317065938125</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>5657.800387178262</v>
+        <v>5642.611661306643</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>5743.816684366785</v>
+        <v>5728.397042261103</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>5831.355017103395</v>
+        <v>5815.700372762178</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>5920.443068797432</v>
+        <v>5904.549261901331</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>6011.108951104185</v>
+        <v>5994.971745866321</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>6103.381183837528</v>
+        <v>6086.996267907763</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>6197.288672816178</v>
+        <v>6180.65165624486</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>6292.860685565168</v>
+        <v>6275.967099832107</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>6390.126824806193</v>
+        <v>6372.972121920809</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>6489.116999664499</v>
+        <v>6471.696551343251</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>6589.86139452201</v>
+        <v>6572.170491449468</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>6692.390435448336</v>
+        <v>6674.42428662834</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>6796.73475414602</v>
+        <v>6778.488486349655</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>6902.925149333584</v>
+        <v>6884.39380665081</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>7010.992545516181</v>
+        <v>6992.171089018152</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>7120.967949073747</v>
+        <v>7101.851256593012</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>7232.882401610726</v>
+        <v>7213.46526764667</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>7346.766930513067</v>
+        <v>7327.044066270079</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>7462.652496666155</v>
+        <v>7442.618530232153</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>7580.569939282318</v>
+        <v>7560.219415955386</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>7700.549917797584</v>
+        <v>7679.877300568598</v>
       </c>
     </row>
     <row r="303">
@@ -2853,7 +2853,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>5402.825641560344</v>
+        <v>5585.839163300396</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>5488.6036923308</v>
+        <v>5674.522831279511</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>5575.868617417579</v>
+        <v>5764.743739461813</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>5664.640653180371</v>
+        <v>5856.522809686723</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>5754.93968019604</v>
+        <v>5949.880595959161</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>5846.785170683315</v>
+        <v>6044.837230093331</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>5940.196133860106</v>
+        <v>6141.412365219076</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>6035.191059248179</v>
+        <v>6239.625117166082</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>6131.787857951217</v>
+        <v>6339.494003752815</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>6230.003801953661</v>
+        <v>6441.036882029178</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>6329.855461480473</v>
+        <v>6544.27088351443</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>6431.358640472517</v>
+        <v>6649.212347486883</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>6534.528310254813</v>
+        <v>6755.876752405247</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>6639.37854147198</v>
+        <v>6864.278645538488</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>6745.922434380975</v>
+        <v>6974.431570897313</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>6854.172047614559</v>
+        <v>7086.347995584609</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>6964.138325521895</v>
+        <v>7200.039234674786</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>7075.831024224338</v>
+        <v>7315.515374764813</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>7189.258636537112</v>
+        <v>7432.785196352718</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>7304.428315902725</v>
+        <v>7551.856095194349</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>7421.345799528121</v>
+        <v>7672.734002836886</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>7540.015330898852</v>
+        <v>7795.423306508307</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>7660.439581895967</v>
+        <v>7919.92676859607</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>7782.619574717185</v>
+        <v>8046.245445923481</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>7906.554603852507</v>
+        <v>8174.378609082328</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>8032.242158365168</v>
+        <v>8304.323662081209</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>8159.677844741494</v>
+        <v>8436.076062582028</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>8288.855310598232</v>
+        <v>8569.62924302301</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>8419.766169545264</v>
+        <v>8704.974532936241</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>8552.399927517756</v>
+        <v>8842.10108278442</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>8686.743910900777</v>
+        <v>8980.995789650797</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>8822.78319679523</v>
+        <v>9121.643225142938</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>8960.500545771281</v>
+        <v>9264.025565868295</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>9099.876337477943</v>
+        <v>9408.122526862622</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>9240.888509486063</v>
+        <v>9553.911298361367</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>9383.512499745413</v>
+        <v>9701.366486307572</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>9527.721193047986</v>
+        <v>9850.460057001676</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>9673.484871909295</v>
+        <v>10001.16128631899</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>9820.771172255141</v>
+        <v>10153.43671389541</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>9969.545044331453</v>
+        <v>10307.25010271313</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>10119.76871924869</v>
+        <v>10462.5624045118</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>10271.40168156136</v>
+        <v>10619.33173143918</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>10424.40064830047</v>
+        <v>10777.51333437334</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>10578.71955484204</v>
+        <v>10937.05958831254</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>10734.30954803387</v>
+        <v>11097.91998526911</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>10891.11898693257</v>
+        <v>11260.04113503151</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>11049.0934515581</v>
+        <v>11423.36677421536</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>11208.17575999125</v>
+        <v>11587.83778394009</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>11368.30599418757</v>
+        <v>11753.39221651733</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>11529.42153480448</v>
+        <v>11919.96533145767</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>11691.45710535979</v>
+        <v>12087.48964112504</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>11854.34482598356</v>
+        <v>12255.89496630932</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>12018.01427702279</v>
+        <v>12425.10850198559</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>12182.392572708</v>
+        <v>12595.054893476</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>12347.40444507108</v>
+        <v>12765.65632321027</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3293,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>11950.56968754657</v>
+        <v>12517.57694345266</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3301,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>12109.15091289384</v>
+        <v>12683.68222060444</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>12268.1088837369</v>
+        <v>12850.18211833539</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>12427.36361607077</v>
+        <v>13016.99285771592</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>12586.8334020714</v>
+        <v>13184.02885420895</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>12746.43495066525</v>
+        <v>13351.20286490902</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>12906.08353809051</v>
+        <v>13518.42614624695</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>13065.69316827627</v>
+        <v>13685.60862197848</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>13225.17674286113</v>
+        <v>13852.65906126953</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>13384.44624062332</v>
+        <v>14019.48526663954</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>13543.41290600699</v>
+        <v>14185.99427143266</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>13701.98744644618</v>
+        <v>14352.0925465039</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>13860.08023807189</v>
+        <v>14517.68621568624</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>14017.60153939612</v>
+        <v>14682.68127961307</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>14174.4617124959</v>
+        <v>14846.9838473966</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>15282.08008034238</v>
+        <v>15772.89032928959</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>15447.66016250305</v>
+        <v>15943.78830017474</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>15612.25157984079</v>
+        <v>16113.66585356814</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>15775.76168274369</v>
+        <v>16282.42736425644</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>15938.09921038681</v>
+        <v>16449.9786404166</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>16099.17456143878</v>
+        <v>16616.22720301657</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>16258.90006801622</v>
+        <v>16781.08256856833</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>16417.19027206653</v>
+        <v>16944.45653438715</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>16573.96220333713</v>
+        <v>17106.2634654883</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>16729.13565805907</v>
+        <v>17266.42058222102</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>18236.11612827523</v>
+        <v>17616.74738185691</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>18400.03015842703</v>
+        <v>17775.09426017323</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>18561.97859226374</v>
+        <v>17931.5423013965</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>18721.88974126214</v>
+        <v>18086.02225182188</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>18879.69638809295</v>
+        <v>18238.46917707948</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>19035.33607187418</v>
+        <v>18388.82273769948</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>19188.75136735057</v>
+        <v>18537.02745880948</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>19339.89015703304</v>
+        <v>18683.03299303107</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>19488.7058953307</v>
+        <v>18826.7943756409</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>19635.15786374747</v>
+        <v>18968.27227109989</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>16696.77380021679</v>
+        <v>17037.73451568797</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3581,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>16816.32915308039</v>
+        <v>17159.73127903832</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3589,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>16933.81753156147</v>
+        <v>17279.61885883013</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>17049.22621517718</v>
+        <v>17397.38427481869</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>17162.54833975243</v>
+        <v>17513.02052265728</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>17273.7830518981</v>
+        <v>17626.52673152995</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>17382.93565093605</v>
+        <v>17737.90830897467</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>17490.01771761003</v>
+        <v>17847.17707222274</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>17595.04722901911</v>
+        <v>17954.35136547915</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>17698.04865913564</v>
+        <v>18059.45616249321</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>12249.60800134062</v>
+        <v>9406.092751238686</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>12317.77249941929</v>
+        <v>9458.43414789394</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>12384.61913073253</v>
+        <v>9509.763595674754</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>12450.18310402894</v>
+        <v>9560.108130283392</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>12514.50428334538</v>
+        <v>9609.49836207312</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>12577.62718986775</v>
+        <v>9657.968477476992</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>12639.60099133986</v>
+        <v>9705.556230875278</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>12700.47947861784</v>
+        <v>9752.302926592323</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>12760.32102907092</v>
+        <v>9798.253390793137</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>12819.18855641401</v>
+        <v>9843.455932961393</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>13385.85476288793</v>
+        <v>10538.5939663758</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>13445.23753117334</v>
+        <v>10585.34562285532</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>13503.83154805054</v>
+        <v>10631.4763006242</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>13561.72025835062</v>
+        <v>10677.05169524009</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>13618.99133691734</v>
+        <v>10722.14083252137</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>13675.7365436414</v>
+        <v>10766.81595441653</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>13732.05156153802</v>
+        <v>10811.15239152379</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>13788.03581740748</v>
+        <v>10855.2284218983</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>13843.79228462803</v>
+        <v>10899.12511579237</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>13899.42726760121</v>
+        <v>10942.92616595064</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>13955.05016741886</v>
+        <v>10986.71770312135</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>14010.77322825848</v>
+        <v>11030.58809639504</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>14066.71126411112</v>
+        <v>11074.6277380593</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>14122.98136537346</v>
+        <v>11118.92881260067</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>14179.70258494789</v>
+        <v>11163.58504957329</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>14236.99560348762</v>
+        <v>11208.69146004865</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>14294.98237346905</v>
+        <v>11254.34405639611</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>14353.78574187436</v>
+        <v>11300.63955522349</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>14413.5290513037</v>
+        <v>11347.67506333531</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3885,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>14474.33571943854</v>
+        <v>11395.54774664709</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3893,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>14536.3287969046</v>
+        <v>11444.35448209383</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>14599.6305036593</v>
+        <v>11494.19149263095</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>14664.36174422617</v>
+        <v>11545.15396558153</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>14730.64160218177</v>
+        <v>11597.33565464928</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>14798.58681456198</v>
+        <v>11650.82846612214</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>14868.31122695372</v>
+        <v>11705.72202986959</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>14939.92523034188</v>
+        <v>11762.10325597604</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>15013.53518091815</v>
+        <v>11820.05587796019</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>15089.24280438712</v>
+        <v>11879.65998378918</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>15167.14458650982</v>
+        <v>11940.99153605765</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>15247.33115191447</v>
+        <v>12004.12188292954</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>15329.88663351923</v>
+        <v>12069.11726168886</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>15414.88803517756</v>
+        <v>12136.03829695465</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>15502.40459048583</v>
+        <v>12204.93949587449</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>15592.49712099815</v>
+        <v>12275.8687428513</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>15685.2173974134</v>
+        <v>12348.86679661023</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>15780.60750763825</v>
+        <v>12423.96679267881</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>15878.69923585868</v>
+        <v>12501.19375453419</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>15979.51345717447</v>
+        <v>12580.56411700286</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>16083.05955252275</v>
+        <v>12662.08526563392</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/i_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_SFH.xlsx
@@ -445,7 +445,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>72931.47135845218</v>
+        <v>72146.20652552132</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>87.8640199977511</v>
+        <v>86.91797402200143</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>89.29116933491981</v>
+        <v>88.32975701368245</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>90.74974405080114</v>
+        <v>89.77262702199036</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>92.24082611875008</v>
+        <v>91.24765437049973</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>93.76554144194195</v>
+        <v>92.7559528396061</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>95.32506117049452</v>
+        <v>94.2986809694663</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>96.92060300920107</v>
+        <v>95.87704335365112</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>98.5534325114613</v>
+        <v>97.49229191914408</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>100.2248643534391</v>
+        <v>99.14572718678023</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>101.9362635844379</v>
+        <v>100.8386995081586</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>103.6890468481428</v>
+        <v>102.5726102737348</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>105.4846835677492</v>
+        <v>104.3489130851893</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>107.3246970908816</v>
+        <v>106.1691148880189</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>109.2106657862268</v>
+        <v>108.0347770563617</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>111.144224087092</v>
+        <v>109.9475164253198</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>113.1270634736399</v>
+        <v>111.9090062626182</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>115.1609333877708</v>
+        <v>113.9209771736359</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>117.2476420732101</v>
+        <v>115.9852179324488</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>119.3890573326251</v>
+        <v>118.1035762307934</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>121.5871071954368</v>
+        <v>120.2779593386891</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>123.8437804869406</v>
+        <v>122.5103346674311</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>126.1611272916101</v>
+        <v>124.802730227905</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>128.5412593024059</v>
+        <v>127.1572349761351</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>130.9863500467883</v>
+        <v>129.5759990368632</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>133.4986349822643</v>
+        <v>132.0612337980676</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>136.0804114518083</v>
+        <v>134.6152118668629</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>138.7340384910772</v>
+        <v>137.240266878791</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>141.461936479057</v>
+        <v>139.93879315223</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>144.266586622665</v>
+        <v>142.7132451785448</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>147.150530267619</v>
+        <v>145.5661369403768</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>150.1163680267209</v>
+        <v>148.5000410493134</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>153.166758717057</v>
+        <v>151.5175876945315</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>156.3044180983581</v>
+        <v>154.6214633947418</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>159.532117404023</v>
+        <v>157.8144095450294</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>162.8526816577396</v>
+        <v>161.0992207515997</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>166.2689877673525</v>
+        <v>164.4787429461697</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>169.7839623900778</v>
+        <v>167.9558712741684</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>173.4005795615236</v>
+        <v>171.5335477492864</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>177.1218580827027</v>
+        <v>175.2147586686225</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>180.9508586587792</v>
+        <v>179.0025317822378</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>184.8906807858553</v>
+        <v>182.8999332134639</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>188.944459379051</v>
+        <v>186.9100641232873</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>193.1153611401435</v>
+        <v>191.0360571171003</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>197.406580660168</v>
+        <v>195.2810723892644</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>201.8213362548283</v>
+        <v>199.6482936033632</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>206.3628655322151</v>
+        <v>204.1409235076422</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>211.0344206902627</v>
+        <v>208.7621792830996</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>215.8392635455171</v>
+        <v>213.5152876257807</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>220.7806602942691</v>
+        <v>218.4034795643173</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>225.8618760073768</v>
+        <v>223.4299850140268</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>231.0861688630061</v>
+        <v>228.5980270717489</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>236.4567841206476</v>
+        <v>233.9108160547456</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>241.9769478432329</v>
+        <v>239.371543290412</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>247.649860372195</v>
+        <v>244.9833746615926</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>253.4786895647046</v>
+        <v>250.7494439166324</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>259.4665638021809</v>
+        <v>256.6728457531669</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>265.6165647789782</v>
+        <v>262.7566286844535</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>271.9317200844555</v>
+        <v>269.003787701312</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>278.4149955907788</v>
+        <v>275.4172567418875</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>285.0692876603121</v>
+        <v>281.9999009829467</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>291.8974151882193</v>
+        <v>288.7545089681577</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>298.9021114982028</v>
+        <v>295.6837845910889</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>306.0860161070704</v>
+        <v>302.7903389484479</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>313.4516663807735</v>
+        <v>310.0766820859603</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>321.0014890993536</v>
+        <v>317.5452146541385</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>328.7377919549981</v>
+        <v>325.1982194978783</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>336.6627550056305</v>
+        <v>333.0378532020706</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>344.7784221078921</v>
+        <v>341.0661376168247</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>353.0866923551418</v>
+        <v>349.2849513876571</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>361.5893115477757</v>
+        <v>357.6960215176515</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>370.287863721727</v>
+        <v>366.3009149871727</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>379.1837627651581</v>
+        <v>375.1010304608226</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>388.2782441516128</v>
+        <v>384.0975901096035</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>397.5723568200308</v>
+        <v>393.2916315783616</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>407.0669552322446</v>
+        <v>402.6840001288018</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>416.7626916396417</v>
+        <v>412.2753409894167</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>426.6600085900619</v>
+        <v>422.0660919430625</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>436.759131708054</v>
+        <v>432.0564761849525</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>447.0600627802093</v>
+        <v>442.2464954824412</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>457.5625731785541</v>
+        <v>452.6359236692292</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>468.2661976545401</v>
+        <v>463.2243005061736</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>479.170228536282</v>
+        <v>474.0109259410058</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>490.2737103610917</v>
+        <v>484.9948547986573</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>501.5754349757001</v>
+        <v>496.174891934239</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>513.0739371343382</v>
+        <v>507.5495878785176</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>524.7674906273008</v>
+        <v>519.1172350081644</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>536.6541049687528</v>
+        <v>530.8758642692238</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>548.7315226717534</v>
+        <v>542.8232424814787</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>560.9972171408911</v>
+        <v>554.956870253775</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>573.4483912071012</v>
+        <v>567.2739805346155</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>586.0819763301378</v>
+        <v>579.7715378232184</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>598.89463249329</v>
+        <v>592.4462380653677</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>611.8827488117296</v>
+        <v>605.2945092552102</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>625.0424448741212</v>
+        <v>618.3125127624213</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>638.3695728368617</v>
+        <v>631.496145403894</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>651.8597202861521</v>
+        <v>644.8410422749956</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>665.5082138822651</v>
+        <v>658.342580354596</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>679.3101237974456</v>
+        <v>671.9958828951851</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>693.2602689560413</v>
+        <v>685.7958246065818</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>707.3532230850373</v>
+        <v>699.7370376413221</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>721.5833215769468</v>
+        <v>713.8139183836553</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>735.944669167101</v>
+        <v>728.0206350441712</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>750.4311484250231</v>
+        <v>742.351136059747</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>765.0364290526768</v>
+        <v>756.7991592916788</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>779.7539779852001</v>
+        <v>771.3582420176608</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>794.5770702811936</v>
+        <v>786.0217317048147</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>809.4988007911932</v>
+        <v>800.7827975525262</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>824.5120965870087</v>
+        <v>815.634442787956</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>839.6097301324289</v>
+        <v>830.569517694933</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>854.7843331738173</v>
+        <v>845.5807333549875</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>870.0284113239181</v>
+        <v>860.6606760741316</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>885.3343593121322</v>
+        <v>875.8018224689329</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>900.6944768687279</v>
+        <v>890.9965551796971</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>916.1009852096107</v>
+        <v>906.237179177744</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>931.5460440847912</v>
+        <v>921.5159386303116</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>947.0217693513196</v>
+        <v>936.8250342842797</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>962.520251027897</v>
+        <v>952.1566413263852</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>978.0335717877811</v>
+        <v>967.5029276770108</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>993.5538258425072</v>
+        <v>982.8560726705824</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>1009.07313816795</v>
+        <v>998.208286074621</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>1024.583684021459</v>
+        <v>1013.551827396732</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>1040.077708697673</v>
+        <v>1028.879025427712</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>1055.547547468477</v>
+        <v>1044.182297966798</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>1070.985645651433</v>
+        <v>1059.454171674028</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>1086.384578749082</v>
+        <v>1074.687301992699</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>1101.737072601921</v>
+        <v>1089.874493085346</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>1117.036023494675</v>
+        <v>1105.008717723534</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>1132.274518158156</v>
+        <v>1120.083137074353</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>1147.445853604118</v>
+        <v>1135.091120321705</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>1162.543556735849</v>
+        <v>1150.026264065745</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>1177.561403672458</v>
+        <v>1164.882411439107</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>1192.493438726957</v>
+        <v>1179.653670880637</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>1207.333992981428</v>
+        <v>1194.334434510565</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>1222.077702396795</v>
+        <v>1208.919396045282</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>1236.719525404131</v>
+        <v>1223.403568199241</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>1251.254759918663</v>
+        <v>1237.782299515771</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>1265.67905972222</v>
+        <v>1252.051290573125</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>1279.988450162839</v>
+        <v>1266.206609515056</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>1294.179343118935</v>
+        <v>1280.244706853859</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>1308.248551179884</v>
+        <v>1294.162429498271</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>1322.193300997847</v>
+        <v>1307.957033961531</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>1336.011245764983</v>
+        <v>1321.626198704256</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>1349.700476777572</v>
+        <v>1335.168035574045</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>1363.259534046599</v>
+        <v>1348.581100301818</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>1376.687415922856</v>
+        <v>1361.864402023283</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>1389.9835877017</v>
+        <v>1375.017411791049</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>1403.147989182327</v>
+        <v>1388.040070052504</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>1416.181041155642</v>
+        <v>1400.932793067829</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>1429.083650798822</v>
+        <v>1413.696478246479</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>1441.857215962032</v>
+        <v>1426.332508387743</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>1454.503628330927</v>
+        <v>1438.842754809194</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>1467.025275458312</v>
+        <v>1451.229579356473</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>1479.425041657126</v>
+        <v>1463.495835286659</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>1491.706307754241</v>
+        <v>1475.64486702472</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>1503.87294970871</v>
+        <v>1487.680508796638</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>1515.929336097617</v>
+        <v>1499.607082142326</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>1527.880324483915</v>
+        <v>1511.429392322581</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>1539.731256677123</v>
+        <v>1523.152723630801</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>1551.487952907099</v>
+        <v>1534.782833629498</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>1563.156704931846</v>
+        <v>1546.325946332311</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>1574.744268105157</v>
+        <v>1557.788744357053</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>1586.257852433728</v>
+        <v>1569.178360079125</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>1597.70511265482</v>
+        <v>1580.502365816006</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>1609.094137372501</v>
+        <v>1591.768763080469</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>1620.433437290478</v>
+        <v>1602.98597094011</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>1631.731932583099</v>
+        <v>1614.16281352433</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>1642.998939450401</v>
+        <v>1625.308506724152</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>1654.244155904919</v>
+        <v>1636.432644132053</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>1665.477646839284</v>
+        <v>1647.545182270355</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>1676.709828427864</v>
+        <v>1658.656425160807</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>1687.951451916424</v>
+        <v>1669.777008288791</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>1699.213586856155</v>
+        <v>1680.917882017866</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>1710.507603839235</v>
+        <v>1692.090294511222</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>1721.845156795865</v>
+        <v>1703.305774219328</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>1733.238164912645</v>
+        <v>1714.576111992993</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1744.698794233037</v>
+        <v>1725.913342881941</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1756.239439002408</v>
+        <v>1737.329727680713</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1767.872702818998</v>
+        <v>1748.837734282589</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1779.611379654008</v>
+        <v>1760.450018904032</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1791.468434802754</v>
+        <v>1772.179407240948</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1803.456985828547</v>
+        <v>1784.038875617741</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1815.590283560909</v>
+        <v>1796.041532190132</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1827.881693209897</v>
+        <v>1808.200598262818</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1840.344675654587</v>
+        <v>1820.529389779436</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1852.992768965395</v>
+        <v>1833.04129904383</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1865.839570218094</v>
+        <v>1845.749776729877</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1878.898717652907</v>
+        <v>1858.668314232687</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1892.183873236055</v>
+        <v>1871.810426417901</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1905.708705672637</v>
+        <v>1885.189634817481</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1919.486873922063</v>
+        <v>1898.819451322633</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1933.532011265661</v>
+        <v>1912.713362422963</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1947.857709968056</v>
+        <v>1926.884814033003</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1962.477506578361</v>
+        <v>1941.347196951676</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1977.404867911016</v>
+        <v>1956.113832994074</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1992.653177742908</v>
+        <v>1971.197961831813</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>2008.235724262493</v>
+        <v>1986.612728577298</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>2024.165688303417</v>
+        <v>2002.371172144026</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>2040.456132390483</v>
+        <v>2018.486214410505</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>2057.119990626061</v>
+        <v>2034.970650215552</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>2074.170059438967</v>
+        <v>2051.837138206784</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>2091.619455950541</v>
+        <v>2069.098654271396</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>2109.47979526625</v>
+        <v>2086.766688453155</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>2127.763833232383</v>
+        <v>2104.853859254107</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>2146.483741219894</v>
+        <v>2123.372206994107</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>2165.651520231923</v>
+        <v>2142.333603459574</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>2185.278997152453</v>
+        <v>2161.749748192535</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>2205.377821938799</v>
+        <v>2181.632165713348</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>2225.95946575699</v>
+        <v>2201.99220367616</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>2247.035220057652</v>
+        <v>2222.841031954743</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>2268.616196587206</v>
+        <v>2244.189642653561</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>2290.713328325599</v>
+        <v>2266.048851035418</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>2313.337371341042</v>
+        <v>2288.429297356213</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>2336.498907549945</v>
+        <v>2311.341449595168</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>2360.208348364829</v>
+        <v>2334.795607063458</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>2384.475939215111</v>
+        <v>2358.801904876321</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>2409.311764921628</v>
+        <v>2383.370319269713</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>2434.725755902609</v>
+        <v>2408.510673739459</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>2460.727695189627</v>
+        <v>2434.232645981664</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>2487.327226231095</v>
+        <v>2460.545775612186</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>2514.533861450595</v>
+        <v>2487.459472632823</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>2542.356991543075</v>
+        <v>2514.983026627403</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>2570.805895470201</v>
+        <v>2543.125616649525</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>2599.889751134416</v>
+        <v>2571.89632178169</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>2629.617646690552</v>
+        <v>2601.304132325108</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>2659.998592476414</v>
+        <v>2631.357961601836</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>2691.041533516725</v>
+        <v>2662.066658324082</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2722.755362576638</v>
+        <v>2693.439019507172</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2755.148933726322</v>
+        <v>2725.483803888084</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2788.231076386103</v>
+        <v>2758.209745819362</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2822.010609811744</v>
+        <v>2791.625569598428</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2856.496357991061</v>
+        <v>2825.740004203809</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>2891.697164914449</v>
+        <v>2860.561798401238</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>2927.621910180924</v>
+        <v>2896.099736181668</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>2964.279524909757</v>
+        <v>2932.362652501576</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>3001.679007917709</v>
+        <v>2969.359449286024</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>3039.829442127954</v>
+        <v>3007.099111660896</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>3078.740011176241</v>
+        <v>3045.590724380265</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>3118.420016177687</v>
+        <v>3084.843488412651</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>3158.878892617613</v>
+        <v>3124.866737649994</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>3200.126227335966</v>
+        <v>3165.669955709199</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>3242.171775565475</v>
+        <v>3207.262792786843</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>3285.025477989927</v>
+        <v>3249.655082533777</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>3328.697477791373</v>
+        <v>3292.856858918788</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>3373.198137645862</v>
+        <v>3336.87837304133</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>3418.538056639393</v>
+        <v>3381.730109865349</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>3464.728087065009</v>
+        <v>3427.422804835507</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>3511.779351069414</v>
+        <v>3473.967460344575</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>3559.703257114031</v>
+        <v>3521.375362017244</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>3608.511516217503</v>
+        <v>3569.658094777746</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>3658.216157941897</v>
+        <v>3618.827558663922</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>3708.829546093422</v>
+        <v>3668.895984358903</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>3760.364394099441</v>
+        <v>3719.875948402542</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>3812.833780025813</v>
+        <v>3771.780388047069</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>3866.251161203959</v>
+        <v>3824.622615726662</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>3920.630388428735</v>
+        <v>3878.41633310245</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>3975.985719690748</v>
+        <v>3933.175644646971</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>4032.331833407875</v>
+        <v>3988.915070733228</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>4089.683841120466</v>
+        <v>4045.649560193193</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>4148.057299606191</v>
+        <v>4103.394502302222</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>4207.468222384937</v>
+        <v>4162.165738160065</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>4267.933090565041</v>
+        <v>4221.97957142033</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>4329.468862994537</v>
+        <v>4282.852778332415</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>4392.092985681439</v>
+        <v>4344.802617060373</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>4455.823400424244</v>
+        <v>4407.846836220483</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2565,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>4520.678552629456</v>
+        <v>4472.003682614603</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2573,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>4586.677398255749</v>
+        <v>4537.291908099563</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2581,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>4653.839409842177</v>
+        <v>4603.730775550471</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>4722.184581577803</v>
+        <v>4671.340063875754</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>4791.733433355673</v>
+        <v>4740.140072027481</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>4862.50701376806</v>
+        <v>4810.151621964366</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>4934.526901983731</v>
+        <v>4881.396060508806</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>5007.815208459218</v>
+        <v>4953.895260050504</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>5082.394574426424</v>
+        <v>5027.671618039598</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>5158.288170098048</v>
+        <v>5102.748055211393</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>5235.519691537597</v>
+        <v>5179.148012490086</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>5314.11335612839</v>
+        <v>5256.89544650655</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>5394.093896584397</v>
+        <v>5336.014823673662</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>5475.486553437216</v>
+        <v>5416.531112754177</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>5558.317065938125</v>
+        <v>5498.469775860729</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>5642.611661306643</v>
+        <v>5581.856757820165</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>5728.397042261103</v>
+        <v>5666.718473838371</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>5815.700372762178</v>
+        <v>5753.081795397309</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>5904.549261901331</v>
+        <v>5840.974034316929</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>5994.971745866321</v>
+        <v>5930.422924914867</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>6086.996267907763</v>
+        <v>6021.456604188702</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>6180.65165624486</v>
+        <v>6114.103589959585</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>6275.967099832107</v>
+        <v>6208.392756899863</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>6372.972121920809</v>
+        <v>6304.353310379265</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>6471.696551343251</v>
+        <v>6402.014758058263</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>6572.170491449468</v>
+        <v>6501.406879159298</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>6674.42428662834</v>
+        <v>6602.559691348358</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>6778.488486349655</v>
+        <v>6705.503415164195</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>6884.39380665081</v>
+        <v>6810.268435919711</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>6992.171089018152</v>
+        <v>6916.885263026032</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>7101.851256593012</v>
+        <v>7025.384486670073</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>7213.46526764667</v>
+        <v>7135.796731790448</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>7327.044066270079</v>
+        <v>7248.152609298127</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>7442.618530232153</v>
+        <v>7362.48266449614</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>7560.219415955386</v>
+        <v>7478.817322647657</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>7679.877300568598</v>
+        <v>7597.186831652651</v>
       </c>
     </row>
     <row r="303">
@@ -2853,7 +2853,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>5585.839163300396</v>
+        <v>4364.672024856191</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>5674.522831279511</v>
+        <v>4433.967812538945</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>5764.743739461813</v>
+        <v>4504.464771453842</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>5856.522809686723</v>
+        <v>4576.179249541552</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>5949.880595959161</v>
+        <v>4649.127307323627</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>6044.837230093331</v>
+        <v>4723.324675429556</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>6141.412365219076</v>
+        <v>4798.78671045367</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>6239.625117166082</v>
+        <v>4875.528349153838</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>6339.494003752815</v>
+        <v>4953.564061012948</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>6441.036882029178</v>
+        <v>5032.907799201491</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>6544.27088351443</v>
+        <v>5113.572949973648</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>6649.212347486883</v>
+        <v>5195.572280541088</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>6755.876752405247</v>
+        <v>5278.917885486871</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>6864.278645538488</v>
+        <v>5363.62113177951</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>6974.431570897313</v>
+        <v>5449.692602459963</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>7086.347995584609</v>
+        <v>5537.142039093213</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>7200.039234674786</v>
+        <v>5625.978283070373</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>7315.515374764813</v>
+        <v>5716.209215872871</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>7432.785196352718</v>
+        <v>5807.841698420432</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>7551.856095194349</v>
+        <v>5900.881509620703</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>7672.734002836886</v>
+        <v>5995.333284275597</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>7795.423306508307</v>
+        <v>6091.200450484396</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>7919.92676859607</v>
+        <v>6188.485166725873</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>8046.245445923481</v>
+        <v>6287.188258782327</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>8174.378609082328</v>
+        <v>6387.309156707593</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>8304.323662081209</v>
+        <v>6488.845832041718</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>8436.076062582028</v>
+        <v>6591.794735485224</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>8569.62924302301</v>
+        <v>6696.150735266089</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>8704.974532936241</v>
+        <v>6801.907056440094</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>8842.10108278442</v>
+        <v>6909.055221378264</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>8980.995789650797</v>
+        <v>7017.584991702349</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>9121.643225142938</v>
+        <v>7127.48431195016</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>9264.025565868295</v>
+        <v>7238.739255250446</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>9408.122526862622</v>
+        <v>7351.333971305094</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>9553.911298361367</v>
+        <v>7465.250636983444</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>9701.366486307572</v>
+        <v>7580.469409836267</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>9850.460057001676</v>
+        <v>7696.968384846134</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>10001.16128631899</v>
+        <v>7814.723554746885</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>10153.43671389541</v>
+        <v>7933.708774225192</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>10307.25010271313</v>
+        <v>8053.895728341571</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>10462.5624045118</v>
+        <v>8175.253905503288</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>10619.33173143918</v>
+        <v>8297.750575312732</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>10777.51333437334</v>
+        <v>8421.350771628751</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>10937.05958831254</v>
+        <v>8546.017281150587</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>11097.91998526911</v>
+        <v>8671.710637865279</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>11260.04113503151</v>
+        <v>8798.389123643121</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>11423.36677421536</v>
+        <v>8926.008775309976</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>11587.83778394009</v>
+        <v>9054.523398459498</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>11753.39221651733</v>
+        <v>9183.88458830691</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>11919.96533145767</v>
+        <v>9314.041757824067</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>12087.48964112504</v>
+        <v>9444.942173412921</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>12255.89496630932</v>
+        <v>9576.530998328955</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>12425.10850198559</v>
+        <v>9708.751344064229</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>12595.054893476</v>
+        <v>9841.544329858893</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>12765.65632321027</v>
+        <v>9974.849150494243</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3293,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>12517.57694345266</v>
+        <v>9648.422021059796</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3301,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>12683.68222060444</v>
+        <v>9776.454292890461</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>12850.18211833539</v>
+        <v>9904.790734282322</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>13016.99285771592</v>
+        <v>10033.36676928167</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>13184.02885420895</v>
+        <v>10162.11643019076</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>13351.20286490902</v>
+        <v>10290.97247105825</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>13518.42614624695</v>
+        <v>10419.86648923632</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>13685.60862197848</v>
+        <v>10548.72905486466</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>13852.65906126953</v>
+        <v>10677.48984813675</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>14019.48526663954</v>
+        <v>10806.07780416475</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>14185.99427143266</v>
+        <v>10934.42126518825</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>14352.0925465039</v>
+        <v>11062.44813988589</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>14517.68621568624</v>
+        <v>11190.08606945521</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>14682.68127961307</v>
+        <v>11317.26260013278</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>14846.9838473966</v>
+        <v>11443.90536176952</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>15772.89032928959</v>
+        <v>12525.39438235054</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>15943.78830017474</v>
+        <v>12661.10600145088</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>16113.66585356814</v>
+        <v>12796.0072978233</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>16282.42736425644</v>
+        <v>12930.02233462394</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>16449.9786404166</v>
+        <v>13063.07631327711</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>16616.22720301657</v>
+        <v>13195.09579534989</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>16781.08256856833</v>
+        <v>13326.00892708885</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>16944.45653438715</v>
+        <v>13455.745665947</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>17106.2634654883</v>
+        <v>13584.2380084111</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>17266.42058222102</v>
+        <v>13711.42021841431</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>17616.74738185691</v>
+        <v>14792.39797354074</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>17775.09426017323</v>
+        <v>14925.35838848857</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>17931.5423013965</v>
+        <v>15056.7243914057</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>18086.02225182188</v>
+        <v>15186.43783146891</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>18238.46917707948</v>
+        <v>15314.44418470614</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>18388.82273769948</v>
+        <v>15440.69278538259</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>18537.02745880948</v>
+        <v>15565.13705245964</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>18683.03299303107</v>
+        <v>15687.73471034337</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>18826.7943756409</v>
+        <v>15808.44800313778</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>18968.27227109989</v>
+        <v>15927.24390164987</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>17037.73451568797</v>
+        <v>12477.9900996606</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3581,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>17159.73127903832</v>
+        <v>12567.33733088284</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3589,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>17279.61885883013</v>
+        <v>12655.13985136096</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>17397.38427481869</v>
+        <v>12741.38815470402</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>17513.02052265728</v>
+        <v>12826.07711111212</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>17626.52673152995</v>
+        <v>12909.20608282247</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>17737.90830897467</v>
+        <v>12990.77903017414</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>17847.17707222274</v>
+        <v>13070.80460779751</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>17954.35136547915</v>
+        <v>13149.29625050741</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>18059.45616249321</v>
+        <v>13226.27224842314</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>9406.092751238686</v>
+        <v>9407.887849263001</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>9458.43414789394</v>
+        <v>9460.239234968991</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>9509.763595674754</v>
+        <v>9511.578478675992</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>9560.108130283392</v>
+        <v>9561.932621245875</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>9609.49836207312</v>
+        <v>9611.332278873711</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>9657.968477476992</v>
+        <v>9659.811644516838</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>9705.556230875278</v>
+        <v>9707.408479760727</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>9752.302926592323</v>
+        <v>9754.164096812417</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>9798.253390793137</v>
+        <v>9800.123330391727</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>9843.455932961393</v>
+        <v>9845.334499201914</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>10538.5939663758</v>
+        <v>9991.874344193982</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>10585.34562285532</v>
+        <v>10036.20062513969</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>10631.4763006242</v>
+        <v>10079.93814241664</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>10677.05169524009</v>
+        <v>10123.14918343805</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>10722.14083252137</v>
+        <v>10165.89919311108</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>10766.81595441653</v>
+        <v>10208.25666562707</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>10811.15239152379</v>
+        <v>10250.2930235946</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>10855.2284218983</v>
+        <v>10292.08248417142</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>10899.12511579237</v>
+        <v>10333.70191185926</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>10942.92616595064</v>
+        <v>10375.23065760291</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>10986.71770312135</v>
+        <v>10416.75038387236</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>11030.58809639504</v>
+        <v>10458.34487535952</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>11074.6277380593</v>
+        <v>10500.09983499424</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>11118.92881260067</v>
+        <v>10542.10266492985</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>11163.58504957329</v>
+        <v>10584.44223223253</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>11208.69146004865</v>
+        <v>10627.20861900341</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>11254.34405639611</v>
+        <v>10670.49285669636</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>11300.63955522349</v>
+        <v>10714.38664446927</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>11347.67506333531</v>
+        <v>10758.98205143419</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3885,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>11395.54774664709</v>
+        <v>10804.37120274763</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3893,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>11444.35448209383</v>
+        <v>10850.64594957725</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>11494.19149263095</v>
+        <v>10897.89752303819</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>11545.15396558153</v>
+        <v>10946.21617233962</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>11597.33565464928</v>
+        <v>10995.69078744448</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>11650.82846612214</v>
+        <v>11046.40850673984</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>11705.72202986959</v>
+        <v>11098.45431029006</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>11762.10325597604</v>
+        <v>11151.91059947101</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>11820.05587796019</v>
+        <v>11206.85676388627</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>11879.65998378918</v>
+        <v>11263.36873671125</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>11940.99153605765</v>
+        <v>11321.51853976431</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>12004.12188292954</v>
+        <v>11381.37381981988</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>12069.11726168886</v>
+        <v>11442.99737791391</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>12136.03829695465</v>
+        <v>11506.44669359043</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>12204.93949587449</v>
+        <v>11571.77344628323</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>12275.8687428513</v>
+        <v>11639.02303625528</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>12348.86679661023</v>
+        <v>11708.23410775656</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>12423.96679267881</v>
+        <v>11779.43807731464</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>12501.19375453419</v>
+        <v>11852.65867024238</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>12580.56411700286</v>
+        <v>11927.9114687628</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>12662.08526563392</v>
+        <v>12005.20347527854</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/i_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_SFH.xlsx
@@ -445,7 +445,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>72146.20652552132</v>
+        <v>72931.47135845218</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>86.91797402200143</v>
+        <v>87.8640199977511</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>88.32975701368245</v>
+        <v>89.29116933491981</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>89.77262702199036</v>
+        <v>90.74974405080114</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>91.24765437049973</v>
+        <v>92.24082611875008</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>92.7559528396061</v>
+        <v>93.76554144194195</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>94.2986809694663</v>
+        <v>95.32506117049452</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>95.87704335365112</v>
+        <v>96.92060300920107</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>97.49229191914408</v>
+        <v>98.5534325114613</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>99.14572718678023</v>
+        <v>100.2248643534391</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>100.8386995081586</v>
+        <v>101.9362635844379</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>102.5726102737348</v>
+        <v>103.6890468481428</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>104.3489130851893</v>
+        <v>105.4846835677492</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>106.1691148880189</v>
+        <v>107.3246970908816</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>108.0347770563617</v>
+        <v>109.2106657862268</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>109.9475164253198</v>
+        <v>111.144224087092</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>111.9090062626182</v>
+        <v>113.1270634736399</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>113.9209771736359</v>
+        <v>115.1609333877708</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>115.9852179324488</v>
+        <v>117.2476420732101</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>118.1035762307934</v>
+        <v>119.3890573326251</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>120.2779593386891</v>
+        <v>121.5871071954368</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>122.5103346674311</v>
+        <v>123.8437804869406</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>124.802730227905</v>
+        <v>126.1611272916101</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>127.1572349761351</v>
+        <v>128.5412593024059</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>129.5759990368632</v>
+        <v>130.9863500467883</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>132.0612337980676</v>
+        <v>133.4986349822643</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>134.6152118668629</v>
+        <v>136.0804114518083</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>137.240266878791</v>
+        <v>138.7340384910772</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>139.93879315223</v>
+        <v>141.461936479057</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>142.7132451785448</v>
+        <v>144.266586622665</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>145.5661369403768</v>
+        <v>147.150530267619</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>148.5000410493134</v>
+        <v>150.1163680267209</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>151.5175876945315</v>
+        <v>153.166758717057</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>154.6214633947418</v>
+        <v>156.3044180983581</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>157.8144095450294</v>
+        <v>159.532117404023</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>161.0992207515997</v>
+        <v>162.8526816577396</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>164.4787429461697</v>
+        <v>166.2689877673525</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>167.9558712741684</v>
+        <v>169.7839623900778</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>171.5335477492864</v>
+        <v>173.4005795615236</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>175.2147586686225</v>
+        <v>177.1218580827027</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>179.0025317822378</v>
+        <v>180.9508586587792</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>182.8999332134639</v>
+        <v>184.8906807858553</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>186.9100641232873</v>
+        <v>188.944459379051</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>191.0360571171003</v>
+        <v>193.1153611401435</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>195.2810723892644</v>
+        <v>197.406580660168</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>199.6482936033632</v>
+        <v>201.8213362548283</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>204.1409235076422</v>
+        <v>206.3628655322151</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>208.7621792830996</v>
+        <v>211.0344206902627</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>213.5152876257807</v>
+        <v>215.8392635455171</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>218.4034795643173</v>
+        <v>220.7806602942691</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>223.4299850140268</v>
+        <v>225.8618760073768</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>228.5980270717489</v>
+        <v>231.0861688630061</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>233.9108160547456</v>
+        <v>236.4567841206476</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>239.371543290412</v>
+        <v>241.9769478432329</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>244.9833746615926</v>
+        <v>247.649860372195</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>250.7494439166324</v>
+        <v>253.4786895647046</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>256.6728457531669</v>
+        <v>259.4665638021809</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>262.7566286844535</v>
+        <v>265.6165647789782</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>269.003787701312</v>
+        <v>271.9317200844555</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>275.4172567418875</v>
+        <v>278.4149955907788</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>281.9999009829467</v>
+        <v>285.0692876603121</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>288.7545089681577</v>
+        <v>291.8974151882193</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>295.6837845910889</v>
+        <v>298.9021114982028</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>302.7903389484479</v>
+        <v>306.0860161070704</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>310.0766820859603</v>
+        <v>313.4516663807735</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>317.5452146541385</v>
+        <v>321.0014890993536</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>325.1982194978783</v>
+        <v>328.7377919549981</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>333.0378532020706</v>
+        <v>336.6627550056305</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>341.0661376168247</v>
+        <v>344.7784221078921</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>349.2849513876571</v>
+        <v>353.0866923551418</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>357.6960215176515</v>
+        <v>361.5893115477757</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>366.3009149871727</v>
+        <v>370.287863721727</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>375.1010304608226</v>
+        <v>379.1837627651581</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>384.0975901096035</v>
+        <v>388.2782441516128</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>393.2916315783616</v>
+        <v>397.5723568200308</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>402.6840001288018</v>
+        <v>407.0669552322446</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>412.2753409894167</v>
+        <v>416.7626916396417</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>422.0660919430625</v>
+        <v>426.6600085900619</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>432.0564761849525</v>
+        <v>436.759131708054</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>442.2464954824412</v>
+        <v>447.0600627802093</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>452.6359236692292</v>
+        <v>457.5625731785541</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>463.2243005061736</v>
+        <v>468.2661976545401</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>474.0109259410058</v>
+        <v>479.170228536282</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>484.9948547986573</v>
+        <v>490.2737103610917</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>496.174891934239</v>
+        <v>501.5754349757001</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>507.5495878785176</v>
+        <v>513.0739371343382</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>519.1172350081644</v>
+        <v>524.7674906273008</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>530.8758642692238</v>
+        <v>536.6541049687528</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>542.8232424814787</v>
+        <v>548.7315226717534</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>554.956870253775</v>
+        <v>560.9972171408911</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>567.2739805346155</v>
+        <v>573.4483912071012</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>579.7715378232184</v>
+        <v>586.0819763301378</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>592.4462380653677</v>
+        <v>598.89463249329</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>605.2945092552102</v>
+        <v>611.8827488117296</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>618.3125127624213</v>
+        <v>625.0424448741212</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>631.496145403894</v>
+        <v>638.3695728368617</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>644.8410422749956</v>
+        <v>651.8597202861521</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>658.342580354596</v>
+        <v>665.5082138822651</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>671.9958828951851</v>
+        <v>679.3101237974456</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>685.7958246065818</v>
+        <v>693.2602689560413</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>699.7370376413221</v>
+        <v>707.3532230850373</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>713.8139183836553</v>
+        <v>721.5833215769468</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>728.0206350441712</v>
+        <v>735.944669167101</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>742.351136059747</v>
+        <v>750.4311484250231</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>756.7991592916788</v>
+        <v>765.0364290526768</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>771.3582420176608</v>
+        <v>779.7539779852001</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>786.0217317048147</v>
+        <v>794.5770702811936</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>800.7827975525262</v>
+        <v>809.4988007911932</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>815.634442787956</v>
+        <v>824.5120965870087</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>830.569517694933</v>
+        <v>839.6097301324289</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>845.5807333549875</v>
+        <v>854.7843331738173</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>860.6606760741316</v>
+        <v>870.0284113239181</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>875.8018224689329</v>
+        <v>885.3343593121322</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>890.9965551796971</v>
+        <v>900.6944768687279</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>906.237179177744</v>
+        <v>916.1009852096107</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>921.5159386303116</v>
+        <v>931.5460440847912</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>936.8250342842797</v>
+        <v>947.0217693513196</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>952.1566413263852</v>
+        <v>962.520251027897</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>967.5029276770108</v>
+        <v>978.0335717877811</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>982.8560726705824</v>
+        <v>993.5538258425072</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>998.208286074621</v>
+        <v>1009.07313816795</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>1013.551827396732</v>
+        <v>1024.583684021459</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>1028.879025427712</v>
+        <v>1040.077708697673</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>1044.182297966798</v>
+        <v>1055.547547468477</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>1059.454171674028</v>
+        <v>1070.985645651433</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>1074.687301992699</v>
+        <v>1086.384578749082</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>1089.874493085346</v>
+        <v>1101.737072601921</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>1105.008717723534</v>
+        <v>1117.036023494675</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>1120.083137074353</v>
+        <v>1132.274518158156</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>1135.091120321705</v>
+        <v>1147.445853604118</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>1150.026264065745</v>
+        <v>1162.543556735849</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>1164.882411439107</v>
+        <v>1177.561403672458</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>1179.653670880637</v>
+        <v>1192.493438726957</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>1194.334434510565</v>
+        <v>1207.333992981428</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>1208.919396045282</v>
+        <v>1222.077702396795</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>1223.403568199241</v>
+        <v>1236.719525404131</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>1237.782299515771</v>
+        <v>1251.254759918663</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>1252.051290573125</v>
+        <v>1265.67905972222</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>1266.206609515056</v>
+        <v>1279.988450162839</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>1280.244706853859</v>
+        <v>1294.179343118935</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>1294.162429498271</v>
+        <v>1308.248551179884</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>1307.957033961531</v>
+        <v>1322.193300997847</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>1321.626198704256</v>
+        <v>1336.011245764983</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>1335.168035574045</v>
+        <v>1349.700476777572</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>1348.581100301818</v>
+        <v>1363.259534046599</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>1361.864402023283</v>
+        <v>1376.687415922856</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>1375.017411791049</v>
+        <v>1389.9835877017</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>1388.040070052504</v>
+        <v>1403.147989182327</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>1400.932793067829</v>
+        <v>1416.181041155642</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>1413.696478246479</v>
+        <v>1429.083650798822</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>1426.332508387743</v>
+        <v>1441.857215962032</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>1438.842754809194</v>
+        <v>1454.503628330927</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>1451.229579356473</v>
+        <v>1467.025275458312</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>1463.495835286659</v>
+        <v>1479.425041657126</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>1475.64486702472</v>
+        <v>1491.706307754241</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>1487.680508796638</v>
+        <v>1503.87294970871</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>1499.607082142326</v>
+        <v>1515.929336097617</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>1511.429392322581</v>
+        <v>1527.880324483915</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>1523.152723630801</v>
+        <v>1539.731256677123</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>1534.782833629498</v>
+        <v>1551.487952907099</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>1546.325946332311</v>
+        <v>1563.156704931846</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>1557.788744357053</v>
+        <v>1574.744268105157</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>1569.178360079125</v>
+        <v>1586.257852433728</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>1580.502365816006</v>
+        <v>1597.70511265482</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>1591.768763080469</v>
+        <v>1609.094137372501</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>1602.98597094011</v>
+        <v>1620.433437290478</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>1614.16281352433</v>
+        <v>1631.731932583099</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>1625.308506724152</v>
+        <v>1642.998939450401</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>1636.432644132053</v>
+        <v>1654.244155904919</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>1647.545182270355</v>
+        <v>1665.477646839284</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>1658.656425160807</v>
+        <v>1676.709828427864</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>1669.777008288791</v>
+        <v>1687.951451916424</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>1680.917882017866</v>
+        <v>1699.213586856155</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>1692.090294511222</v>
+        <v>1710.507603839235</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>1703.305774219328</v>
+        <v>1721.845156795865</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>1714.576111992993</v>
+        <v>1733.238164912645</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1725.913342881941</v>
+        <v>1744.698794233037</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1737.329727680713</v>
+        <v>1756.239439002408</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1748.837734282589</v>
+        <v>1767.872702818998</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1760.450018904032</v>
+        <v>1779.611379654008</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1772.179407240948</v>
+        <v>1791.468434802754</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1784.038875617741</v>
+        <v>1803.456985828547</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1796.041532190132</v>
+        <v>1815.590283560909</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1808.200598262818</v>
+        <v>1827.881693209897</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1820.529389779436</v>
+        <v>1840.344675654587</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1833.04129904383</v>
+        <v>1852.992768965395</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1845.749776729877</v>
+        <v>1865.839570218094</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1858.668314232687</v>
+        <v>1878.898717652907</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1871.810426417901</v>
+        <v>1892.183873236055</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1885.189634817481</v>
+        <v>1905.708705672637</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1898.819451322633</v>
+        <v>1919.486873922063</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1912.713362422963</v>
+        <v>1933.532011265661</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1926.884814033003</v>
+        <v>1947.857709968056</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1941.347196951676</v>
+        <v>1962.477506578361</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1956.113832994074</v>
+        <v>1977.404867911016</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1971.197961831813</v>
+        <v>1992.653177742908</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1986.612728577298</v>
+        <v>2008.235724262493</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>2002.371172144026</v>
+        <v>2024.165688303417</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>2018.486214410505</v>
+        <v>2040.456132390483</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>2034.970650215552</v>
+        <v>2057.119990626061</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>2051.837138206784</v>
+        <v>2074.170059438967</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>2069.098654271396</v>
+        <v>2091.619455950541</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>2086.766688453155</v>
+        <v>2109.47979526625</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>2104.853859254107</v>
+        <v>2127.763833232383</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>2123.372206994107</v>
+        <v>2146.483741219894</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>2142.333603459574</v>
+        <v>2165.651520231923</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>2161.749748192535</v>
+        <v>2185.278997152453</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>2181.632165713348</v>
+        <v>2205.377821938799</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>2201.99220367616</v>
+        <v>2225.95946575699</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>2222.841031954743</v>
+        <v>2247.035220057652</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>2244.189642653561</v>
+        <v>2268.616196587206</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>2266.048851035418</v>
+        <v>2290.713328325599</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>2288.429297356213</v>
+        <v>2313.337371341042</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>2311.341449595168</v>
+        <v>2336.498907549945</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>2334.795607063458</v>
+        <v>2360.208348364829</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>2358.801904876321</v>
+        <v>2384.475939215111</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>2383.370319269713</v>
+        <v>2409.311764921628</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>2408.510673739459</v>
+        <v>2434.725755902609</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>2434.232645981664</v>
+        <v>2460.727695189627</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>2460.545775612186</v>
+        <v>2487.327226231095</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>2487.459472632823</v>
+        <v>2514.533861450595</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>2514.983026627403</v>
+        <v>2542.356991543075</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>2543.125616649525</v>
+        <v>2570.805895470201</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>2571.89632178169</v>
+        <v>2599.889751134416</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>2601.304132325108</v>
+        <v>2629.617646690552</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>2631.357961601836</v>
+        <v>2659.998592476414</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>2662.066658324082</v>
+        <v>2691.041533516725</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2693.439019507172</v>
+        <v>2722.755362576638</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2725.483803888084</v>
+        <v>2755.148933726322</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2758.209745819362</v>
+        <v>2788.231076386103</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2791.625569598428</v>
+        <v>2822.010609811744</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2825.740004203809</v>
+        <v>2856.496357991061</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>2860.561798401238</v>
+        <v>2891.697164914449</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>2896.099736181668</v>
+        <v>2927.621910180924</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>2932.362652501576</v>
+        <v>2964.279524909757</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>2969.359449286024</v>
+        <v>3001.679007917709</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>3007.099111660896</v>
+        <v>3039.829442127954</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>3045.590724380265</v>
+        <v>3078.740011176241</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>3084.843488412651</v>
+        <v>3118.420016177687</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>3124.866737649994</v>
+        <v>3158.878892617613</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>3165.669955709199</v>
+        <v>3200.126227335966</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>3207.262792786843</v>
+        <v>3242.171775565475</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>3249.655082533777</v>
+        <v>3285.025477989927</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>3292.856858918788</v>
+        <v>3328.697477791373</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>3336.87837304133</v>
+        <v>3373.198137645862</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>3381.730109865349</v>
+        <v>3418.538056639393</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>3427.422804835507</v>
+        <v>3464.728087065009</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>3473.967460344575</v>
+        <v>3511.779351069414</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>3521.375362017244</v>
+        <v>3559.703257114031</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>3569.658094777746</v>
+        <v>3608.511516217503</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>3618.827558663922</v>
+        <v>3658.216157941897</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>3668.895984358903</v>
+        <v>3708.829546093422</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>3719.875948402542</v>
+        <v>3760.364394099441</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>3771.780388047069</v>
+        <v>3812.833780025813</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>3824.622615726662</v>
+        <v>3866.251161203959</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>3878.41633310245</v>
+        <v>3920.630388428735</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>3933.175644646971</v>
+        <v>3975.985719690748</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>3988.915070733228</v>
+        <v>4032.331833407875</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>4045.649560193193</v>
+        <v>4089.683841120466</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>4103.394502302222</v>
+        <v>4148.057299606191</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>4162.165738160065</v>
+        <v>4207.468222384937</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>4221.97957142033</v>
+        <v>4267.933090565041</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>4282.852778332415</v>
+        <v>4329.468862994537</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>4344.802617060373</v>
+        <v>4392.092985681439</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>4407.846836220483</v>
+        <v>4455.823400424244</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2565,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>4472.003682614603</v>
+        <v>4520.678552629456</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2573,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>4537.291908099563</v>
+        <v>4586.677398255749</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2581,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>4603.730775550471</v>
+        <v>4653.839409842177</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>4671.340063875754</v>
+        <v>4722.184581577803</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>4740.140072027481</v>
+        <v>4791.733433355673</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>4810.151621964366</v>
+        <v>4862.50701376806</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>4881.396060508806</v>
+        <v>4934.526901983731</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>4953.895260050504</v>
+        <v>5007.815208459218</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>5027.671618039598</v>
+        <v>5082.394574426424</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>5102.748055211393</v>
+        <v>5158.288170098048</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>5179.148012490086</v>
+        <v>5235.519691537597</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>5256.89544650655</v>
+        <v>5314.11335612839</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>5336.014823673662</v>
+        <v>5394.093896584397</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>5416.531112754177</v>
+        <v>5475.486553437216</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>5498.469775860729</v>
+        <v>5558.317065938125</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>5581.856757820165</v>
+        <v>5642.611661306643</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>5666.718473838371</v>
+        <v>5728.397042261103</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>5753.081795397309</v>
+        <v>5815.700372762178</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>5840.974034316929</v>
+        <v>5904.549261901331</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>5930.422924914867</v>
+        <v>5994.971745866321</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>6021.456604188702</v>
+        <v>6086.996267907763</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>6114.103589959585</v>
+        <v>6180.65165624486</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>6208.392756899863</v>
+        <v>6275.967099832107</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>6304.353310379265</v>
+        <v>6372.972121920809</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>6402.014758058263</v>
+        <v>6471.696551343251</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>6501.406879159298</v>
+        <v>6572.170491449468</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>6602.559691348358</v>
+        <v>6674.42428662834</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>6705.503415164195</v>
+        <v>6778.488486349655</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>6810.268435919711</v>
+        <v>6884.39380665081</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>6916.885263026032</v>
+        <v>6992.171089018152</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>7025.384486670073</v>
+        <v>7101.851256593012</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>7135.796731790448</v>
+        <v>7213.46526764667</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>7248.152609298127</v>
+        <v>7327.044066270079</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>7362.48266449614</v>
+        <v>7442.618530232153</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>7478.817322647657</v>
+        <v>7560.219415955386</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>7597.186831652651</v>
+        <v>7679.877300568598</v>
       </c>
     </row>
     <row r="303">
@@ -2853,7 +2853,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>4364.672024856191</v>
+        <v>5585.839163300396</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>4433.967812538945</v>
+        <v>5674.522831279511</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>4504.464771453842</v>
+        <v>5764.743739461813</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>4576.179249541552</v>
+        <v>5856.522809686723</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>4649.127307323627</v>
+        <v>5949.880595959161</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>4723.324675429556</v>
+        <v>6044.837230093331</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>4798.78671045367</v>
+        <v>6141.412365219076</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>4875.528349153838</v>
+        <v>6239.625117166082</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>4953.564061012948</v>
+        <v>6339.494003752815</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>5032.907799201491</v>
+        <v>6441.036882029178</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>5113.572949973648</v>
+        <v>6544.27088351443</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>5195.572280541088</v>
+        <v>6649.212347486883</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>5278.917885486871</v>
+        <v>6755.876752405247</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>5363.62113177951</v>
+        <v>6864.278645538488</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>5449.692602459963</v>
+        <v>6974.431570897313</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>5537.142039093213</v>
+        <v>7086.347995584609</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>5625.978283070373</v>
+        <v>7200.039234674786</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>5716.209215872871</v>
+        <v>7315.515374764813</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>5807.841698420432</v>
+        <v>7432.785196352718</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>5900.881509620703</v>
+        <v>7551.856095194349</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>5995.333284275597</v>
+        <v>7672.734002836886</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>6091.200450484396</v>
+        <v>7795.423306508307</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>6188.485166725873</v>
+        <v>7919.92676859607</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>6287.188258782327</v>
+        <v>8046.245445923481</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>6387.309156707593</v>
+        <v>8174.378609082328</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>6488.845832041718</v>
+        <v>8304.323662081209</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>6591.794735485224</v>
+        <v>8436.076062582028</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>6696.150735266089</v>
+        <v>8569.62924302301</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>6801.907056440094</v>
+        <v>8704.974532936241</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>6909.055221378264</v>
+        <v>8842.10108278442</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>7017.584991702349</v>
+        <v>8980.995789650797</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>7127.48431195016</v>
+        <v>9121.643225142938</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>7238.739255250446</v>
+        <v>9264.025565868295</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>7351.333971305094</v>
+        <v>9408.122526862622</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>7465.250636983444</v>
+        <v>9553.911298361367</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>7580.469409836267</v>
+        <v>9701.366486307572</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>7696.968384846134</v>
+        <v>9850.460057001676</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>7814.723554746885</v>
+        <v>10001.16128631899</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>7933.708774225192</v>
+        <v>10153.43671389541</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>8053.895728341571</v>
+        <v>10307.25010271313</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>8175.253905503288</v>
+        <v>10462.5624045118</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>8297.750575312732</v>
+        <v>10619.33173143918</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>8421.350771628751</v>
+        <v>10777.51333437334</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>8546.017281150587</v>
+        <v>10937.05958831254</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>8671.710637865279</v>
+        <v>11097.91998526911</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>8798.389123643121</v>
+        <v>11260.04113503151</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>8926.008775309976</v>
+        <v>11423.36677421536</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>9054.523398459498</v>
+        <v>11587.83778394009</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>9183.88458830691</v>
+        <v>11753.39221651733</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>9314.041757824067</v>
+        <v>11919.96533145767</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>9444.942173412921</v>
+        <v>12087.48964112504</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>9576.530998328955</v>
+        <v>12255.89496630932</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>9708.751344064229</v>
+        <v>12425.10850198559</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>9841.544329858893</v>
+        <v>12595.054893476</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>9974.849150494243</v>
+        <v>12765.65632321027</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3293,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>9648.422021059796</v>
+        <v>12517.57694345266</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3301,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>9776.454292890461</v>
+        <v>12683.68222060444</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>9904.790734282322</v>
+        <v>12850.18211833539</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>10033.36676928167</v>
+        <v>13016.99285771592</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>10162.11643019076</v>
+        <v>13184.02885420895</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>10290.97247105825</v>
+        <v>13351.20286490902</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>10419.86648923632</v>
+        <v>13518.42614624695</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>10548.72905486466</v>
+        <v>13685.60862197848</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>10677.48984813675</v>
+        <v>13852.65906126953</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>10806.07780416475</v>
+        <v>14019.48526663954</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>10934.42126518825</v>
+        <v>14185.99427143266</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>11062.44813988589</v>
+        <v>14352.0925465039</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>11190.08606945521</v>
+        <v>14517.68621568624</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>11317.26260013278</v>
+        <v>14682.68127961307</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>11443.90536176952</v>
+        <v>14846.9838473966</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>12525.39438235054</v>
+        <v>15772.89032928959</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>12661.10600145088</v>
+        <v>15943.78830017474</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>12796.0072978233</v>
+        <v>16113.66585356814</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>12930.02233462394</v>
+        <v>16282.42736425644</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>13063.07631327711</v>
+        <v>16449.9786404166</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>13195.09579534989</v>
+        <v>16616.22720301657</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>13326.00892708885</v>
+        <v>16781.08256856833</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>13455.745665947</v>
+        <v>16944.45653438715</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>13584.2380084111</v>
+        <v>17106.2634654883</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>13711.42021841431</v>
+        <v>17266.42058222102</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>14792.39797354074</v>
+        <v>17616.74738185691</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>14925.35838848857</v>
+        <v>17775.09426017323</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>15056.7243914057</v>
+        <v>17931.5423013965</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>15186.43783146891</v>
+        <v>18086.02225182188</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>15314.44418470614</v>
+        <v>18238.46917707948</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>15440.69278538259</v>
+        <v>18388.82273769948</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>15565.13705245964</v>
+        <v>18537.02745880948</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>15687.73471034337</v>
+        <v>18683.03299303107</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>15808.44800313778</v>
+        <v>18826.7943756409</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>15927.24390164987</v>
+        <v>18968.27227109989</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>12477.9900996606</v>
+        <v>17037.73451568797</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3581,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>12567.33733088284</v>
+        <v>17159.73127903832</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3589,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>12655.13985136096</v>
+        <v>17279.61885883013</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>12741.38815470402</v>
+        <v>17397.38427481869</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>12826.07711111212</v>
+        <v>17513.02052265728</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>12909.20608282247</v>
+        <v>17626.52673152995</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>12990.77903017414</v>
+        <v>17737.90830897467</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>13070.80460779751</v>
+        <v>17847.17707222274</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>13149.29625050741</v>
+        <v>17954.35136547915</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>13226.27224842314</v>
+        <v>18059.45616249321</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>9407.887849263001</v>
+        <v>9406.092751238686</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>9460.239234968991</v>
+        <v>9458.43414789394</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>9511.578478675992</v>
+        <v>9509.763595674754</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>9561.932621245875</v>
+        <v>9560.108130283392</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>9611.332278873711</v>
+        <v>9609.49836207312</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>9659.811644516838</v>
+        <v>9657.968477476992</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>9707.408479760727</v>
+        <v>9705.556230875278</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>9754.164096812417</v>
+        <v>9752.302926592323</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>9800.123330391727</v>
+        <v>9798.253390793137</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>9845.334499201914</v>
+        <v>9843.455932961393</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>9991.874344193982</v>
+        <v>10538.5939663758</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>10036.20062513969</v>
+        <v>10585.34562285532</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>10079.93814241664</v>
+        <v>10631.4763006242</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>10123.14918343805</v>
+        <v>10677.05169524009</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>10165.89919311108</v>
+        <v>10722.14083252137</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>10208.25666562707</v>
+        <v>10766.81595441653</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>10250.2930235946</v>
+        <v>10811.15239152379</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>10292.08248417142</v>
+        <v>10855.2284218983</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>10333.70191185926</v>
+        <v>10899.12511579237</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>10375.23065760291</v>
+        <v>10942.92616595064</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>10416.75038387236</v>
+        <v>10986.71770312135</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>10458.34487535952</v>
+        <v>11030.58809639504</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>10500.09983499424</v>
+        <v>11074.6277380593</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>10542.10266492985</v>
+        <v>11118.92881260067</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>10584.44223223253</v>
+        <v>11163.58504957329</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>10627.20861900341</v>
+        <v>11208.69146004865</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>10670.49285669636</v>
+        <v>11254.34405639611</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>10714.38664446927</v>
+        <v>11300.63955522349</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>10758.98205143419</v>
+        <v>11347.67506333531</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3885,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>10804.37120274763</v>
+        <v>11395.54774664709</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3893,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>10850.64594957725</v>
+        <v>11444.35448209383</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>10897.89752303819</v>
+        <v>11494.19149263095</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>10946.21617233962</v>
+        <v>11545.15396558153</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>10995.69078744448</v>
+        <v>11597.33565464928</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>11046.40850673984</v>
+        <v>11650.82846612214</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>11098.45431029006</v>
+        <v>11705.72202986959</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>11151.91059947101</v>
+        <v>11762.10325597604</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>11206.85676388627</v>
+        <v>11820.05587796019</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>11263.36873671125</v>
+        <v>11879.65998378918</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>11321.51853976431</v>
+        <v>11940.99153605765</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>11381.37381981988</v>
+        <v>12004.12188292954</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>11442.99737791391</v>
+        <v>12069.11726168886</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>11506.44669359043</v>
+        <v>12136.03829695465</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>11571.77344628323</v>
+        <v>12204.93949587449</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>11639.02303625528</v>
+        <v>12275.8687428513</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>11708.23410775656</v>
+        <v>12348.86679661023</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>11779.43807731464</v>
+        <v>12423.96679267881</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>11852.65867024238</v>
+        <v>12501.19375453419</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>11927.9114687628</v>
+        <v>12580.56411700286</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>12005.20347527854</v>
+        <v>12662.08526563392</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/i_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_SFH.xlsx
@@ -445,7 +445,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>72931.47135845218</v>
+        <v>72931.47135847817</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>87.8640199977511</v>
+        <v>87.86401999964289</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>89.29116933491981</v>
+        <v>89.29116933694192</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>90.74974405080114</v>
+        <v>90.749744052968</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>92.24082611875008</v>
+        <v>92.24082612106167</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>93.76554144194195</v>
+        <v>93.76554144435504</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>95.32506117049452</v>
+        <v>95.32506117308124</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>96.92060300920107</v>
+        <v>96.92060301196145</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>98.5534325114613</v>
+        <v>98.5534325143953</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>100.2248643534391</v>
+        <v>100.2248643565179</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>101.9362635844379</v>
+        <v>101.9362635876904</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>103.6890468481428</v>
+        <v>103.6890468516122</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>105.4846835677492</v>
+        <v>105.4846835714356</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>107.3246970908816</v>
+        <v>107.3246970947563</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>109.2106657862268</v>
+        <v>109.2106657903184</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>111.144224087092</v>
+        <v>111.1442240914151</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>113.1270634736399</v>
+        <v>113.1270634782233</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>115.1609333877708</v>
+        <v>115.1609333926</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>117.2476420732101</v>
+        <v>117.2476420783142</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>119.3890573326251</v>
+        <v>119.3890573379607</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>121.5871071954368</v>
+        <v>121.5871072011048</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>123.8437804869406</v>
+        <v>123.8437804928835</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>126.1611272916101</v>
+        <v>126.1611272978855</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>128.5412593024059</v>
+        <v>128.5412593089995</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>130.9863500467883</v>
+        <v>130.9863500536856</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>133.4986349822643</v>
+        <v>133.4986349895519</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>136.0804114518083</v>
+        <v>136.0804114594141</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>138.7340384910772</v>
+        <v>138.7340384991166</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>141.461936479057</v>
+        <v>141.461936487458</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>144.266586622665</v>
+        <v>144.2665866314708</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>147.150530267619</v>
+        <v>147.1505302768297</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>150.1163680267209</v>
+        <v>150.1163680363653</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>153.166758717057</v>
+        <v>153.1667587271496</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>156.3044180983581</v>
+        <v>156.3044181089132</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>159.532117404023</v>
+        <v>159.5321174150408</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>162.8526816577396</v>
+        <v>162.852681669249</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>166.2689877673525</v>
+        <v>166.2689877793678</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>169.7839623900778</v>
+        <v>169.7839624026136</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>173.4005795615236</v>
+        <v>173.4005795746232</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>177.1218580827027</v>
+        <v>177.121858096294</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>180.9508586587792</v>
+        <v>180.9508586729343</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>184.8906807858553</v>
+        <v>184.8906808005598</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>188.944459379051</v>
+        <v>188.9444593943915</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>193.1153611401435</v>
+        <v>193.1153611561057</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>197.406580660168</v>
+        <v>197.406580676651</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>201.8213362548283</v>
+        <v>201.8213362720052</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>206.3628655322151</v>
+        <v>206.3628655500281</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>211.0344206902627</v>
+        <v>211.0344207086831</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>215.8392635455171</v>
+        <v>215.8392635646315</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>220.7806602942691</v>
+        <v>220.7806603140343</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>225.8618760073768</v>
+        <v>225.861876027836</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>231.0861688630061</v>
+        <v>231.0861688841883</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>236.4567841206476</v>
+        <v>236.456784142524</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>241.9769478432329</v>
+        <v>241.9769478658324</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>247.649860372195</v>
+        <v>247.6498603954888</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>253.4786895647046</v>
+        <v>253.4786895887359</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>259.4665638021809</v>
+        <v>259.4665638269788</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>265.6165647789782</v>
+        <v>265.6165648044561</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>271.9317200844555</v>
+        <v>271.9317201107434</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>278.4149955907788</v>
+        <v>278.4149956178045</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>285.0692876603121</v>
+        <v>285.0692876880324</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>291.8974151882193</v>
+        <v>291.8974152167496</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>298.9021114982028</v>
+        <v>298.9021115274713</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>306.0860161070704</v>
+        <v>306.0860161371058</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>313.4516663807735</v>
+        <v>313.4516664116191</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>321.0014890993536</v>
+        <v>321.0014891308798</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>328.7377919549981</v>
+        <v>328.737791987277</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>336.6627550056305</v>
+        <v>336.6627550386622</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>344.7784221078921</v>
+        <v>344.7784221416767</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>353.0866923551418</v>
+        <v>353.0866923896072</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>361.5893115477757</v>
+        <v>361.5893115830228</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>370.287863721727</v>
+        <v>370.2878637576982</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>379.1837627651581</v>
+        <v>379.1837628017816</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>388.2782441516128</v>
+        <v>388.2782441889606</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>397.5723568200308</v>
+        <v>397.5723568580021</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>407.0669552322446</v>
+        <v>407.0669552709115</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>416.7626916396417</v>
+        <v>416.762691678961</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>426.6600085900619</v>
+        <v>426.6600086299616</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>436.759131708054</v>
+        <v>436.7591317485487</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>447.0600627802093</v>
+        <v>447.0600628212989</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>457.5625731785541</v>
+        <v>457.5625732201812</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>468.2661976545401</v>
+        <v>468.2661976966901</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>479.170228536282</v>
+        <v>479.1702285789407</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>490.2737103610917</v>
+        <v>490.2737104042447</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>501.5754349757001</v>
+        <v>501.5754350192465</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>513.0739371343382</v>
+        <v>513.0739371783501</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>524.7674906273008</v>
+        <v>524.7674906716342</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>536.6541049687528</v>
+        <v>536.6541050135086</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>548.7315226717534</v>
+        <v>548.7315227167442</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>560.9972171408911</v>
+        <v>560.9972171862034</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>573.4483912071012</v>
+        <v>573.4483912526775</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>586.0819763301378</v>
+        <v>586.0819763758341</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>598.89463249329</v>
+        <v>598.8946325392216</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>611.8827488117296</v>
+        <v>611.8827488577379</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>625.0424448741212</v>
+        <v>625.0424449201629</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>638.3695728368617</v>
+        <v>638.3695728829947</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>651.8597202861521</v>
+        <v>651.8597203322322</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>665.5082138822651</v>
+        <v>665.5082139283644</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>679.3101237974456</v>
+        <v>679.3101238433479</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>693.2602689560413</v>
+        <v>693.2602690018763</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>707.3532230850373</v>
+        <v>707.3532231306754</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>721.5833215769468</v>
+        <v>721.5833216223159</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>735.944669167101</v>
+        <v>735.9446692122154</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>750.4311484250231</v>
+        <v>750.4311484697965</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>765.0364290526768</v>
+        <v>765.0364290970803</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>779.7539779852001</v>
+        <v>779.7539780291761</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>794.5770702811936</v>
+        <v>794.5770703247277</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>809.4988007911932</v>
+        <v>809.4988008342134</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>824.5120965870087</v>
+        <v>824.5120966294572</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>839.6097301324289</v>
+        <v>839.609730174277</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>854.7843331738173</v>
+        <v>854.7843332149929</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>870.0284113239181</v>
+        <v>870.02841136445</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>885.3343593121322</v>
+        <v>885.3343593519051</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>900.6944768687279</v>
+        <v>900.6944769077271</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>916.1009852096107</v>
+        <v>916.1009852478077</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>931.5460440847912</v>
+        <v>931.5460441221426</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>947.0217693513196</v>
+        <v>947.0217693877677</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>962.520251027897</v>
+        <v>962.5202510633843</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>978.0335717877811</v>
+        <v>978.0335718223363</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>993.5538258425072</v>
+        <v>993.553825876087</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>1009.07313816795</v>
+        <v>1009.073138200454</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>1024.583684021459</v>
+        <v>1024.583684052929</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>1040.077708697673</v>
+        <v>1040.077708728067</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>1055.547547468477</v>
+        <v>1055.547547497767</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>1070.985645651433</v>
+        <v>1070.985645679574</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>1086.384578749082</v>
+        <v>1086.384578776088</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>1101.737072601921</v>
+        <v>1101.737072627678</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>1117.036023494675</v>
+        <v>1117.036023519341</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>1132.274518158156</v>
+        <v>1132.274518181572</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>1147.445853604118</v>
+        <v>1147.445853626285</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>1162.543556735849</v>
+        <v>1162.543556756823</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>1177.561403672458</v>
+        <v>1177.561403692183</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>1192.493438726957</v>
+        <v>1192.49343874549</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>1207.333992981428</v>
+        <v>1207.33399299864</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>1222.077702396795</v>
+        <v>1222.077702412815</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>1236.719525404131</v>
+        <v>1236.719525418943</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>1251.254759918663</v>
+        <v>1251.254759932226</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>1265.67905972222</v>
+        <v>1265.679059734561</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>1279.988450162839</v>
+        <v>1279.988450173988</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>1294.179343118935</v>
+        <v>1294.179343128877</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>1308.248551179884</v>
+        <v>1308.248551188663</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>1322.193300997847</v>
+        <v>1322.193301005462</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>1336.011245764983</v>
+        <v>1336.011245771506</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>1349.700476777572</v>
+        <v>1349.700476782931</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>1363.259534046599</v>
+        <v>1363.259534050954</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>1376.687415922856</v>
+        <v>1376.687415926119</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>1389.9835877017</v>
+        <v>1389.983587703943</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>1403.147989182327</v>
+        <v>1403.147989183593</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>1416.181041155642</v>
+        <v>1416.181041155975</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>1429.083650798822</v>
+        <v>1429.083650798307</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>1441.857215962032</v>
+        <v>1441.857215960627</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>1454.503628330927</v>
+        <v>1454.503628328689</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>1467.025275458312</v>
+        <v>1467.025275455329</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>1479.425041657126</v>
+        <v>1479.425041653368</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>1491.706307754241</v>
+        <v>1491.706307749895</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>1503.87294970871</v>
+        <v>1503.872949703675</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>1515.929336097617</v>
+        <v>1515.929336092095</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>1527.880324483915</v>
+        <v>1527.880324477777</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>1539.731256677123</v>
+        <v>1539.731256670613</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>1551.487952907099</v>
+        <v>1551.487952900145</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>1563.156704931846</v>
+        <v>1563.156704924535</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>1574.744268105157</v>
+        <v>1574.744268097604</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>1586.257852433728</v>
+        <v>1586.257852425918</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>1597.70511265482</v>
+        <v>1597.70511264684</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>1609.094137372501</v>
+        <v>1609.094137364423</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>1620.433437290478</v>
+        <v>1620.433437282375</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>1631.731932583099</v>
+        <v>1631.731932574969</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>1642.998939450401</v>
+        <v>1642.998939442375</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>1654.244155904919</v>
+        <v>1654.244155897026</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>1665.477646839284</v>
+        <v>1665.477646831567</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>1676.709828427864</v>
+        <v>1676.709828420379</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>1687.951451916424</v>
+        <v>1687.951451909317</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>1699.213586856155</v>
+        <v>1699.213586849369</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>1710.507603839235</v>
+        <v>1710.507603832912</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>1721.845156795865</v>
+        <v>1721.845156789977</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>1733.238164912645</v>
+        <v>1733.238164907337</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1744.698794233037</v>
+        <v>1744.698794228336</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1756.239439002408</v>
+        <v>1756.239438998373</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1767.872702818998</v>
+        <v>1767.872702815658</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1779.611379654008</v>
+        <v>1779.61137965142</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1791.468434802754</v>
+        <v>1791.468434800976</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1803.456985828547</v>
+        <v>1803.456985827636</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1815.590283560909</v>
+        <v>1815.590283560923</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1827.881693209897</v>
+        <v>1827.881693210836</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1840.344675654587</v>
+        <v>1840.344675656538</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1852.992768965395</v>
+        <v>1852.992768968329</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1865.839570218094</v>
+        <v>1865.839570222126</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1878.898717652907</v>
+        <v>1878.898717658094</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1892.183873236055</v>
+        <v>1892.18387324237</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1905.708705672637</v>
+        <v>1905.708705680107</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1919.486873922063</v>
+        <v>1919.486873930746</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1933.532011265661</v>
+        <v>1933.532011275644</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1947.857709968056</v>
+        <v>1947.857709979252</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1962.477506578361</v>
+        <v>1962.477506590857</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1977.404867911016</v>
+        <v>1977.404867924869</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1992.653177742908</v>
+        <v>1992.653177758032</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>2008.235724262493</v>
+        <v>2008.235724279061</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>2024.165688303417</v>
+        <v>2024.165688321255</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>2040.456132390483</v>
+        <v>2040.456132409765</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>2057.119990626061</v>
+        <v>2057.119990646758</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>2074.170059438967</v>
+        <v>2074.170059461049</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>2091.619455950541</v>
+        <v>2091.619455973984</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>2109.47979526625</v>
+        <v>2109.479795291195</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>2127.763833232383</v>
+        <v>2127.763833258685</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>2146.483741219894</v>
+        <v>2146.483741247639</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>2165.651520231923</v>
+        <v>2165.65152026114</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>2185.278997152453</v>
+        <v>2185.278997183028</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>2205.377821938799</v>
+        <v>2205.37782197073</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>2225.95946575699</v>
+        <v>2225.959465790422</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>2247.035220057652</v>
+        <v>2247.035220092469</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>2268.616196587206</v>
+        <v>2268.616196623379</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>2290.713328325599</v>
+        <v>2290.713328363127</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>2313.337371341042</v>
+        <v>2313.337371379928</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>2336.498907549945</v>
+        <v>2336.498907590157</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>2360.208348364829</v>
+        <v>2360.208348406339</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>2384.475939215111</v>
+        <v>2384.475939257976</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>2409.311764921628</v>
+        <v>2409.311764965734</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>2434.725755902609</v>
+        <v>2434.72575594807</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>2460.727695189627</v>
+        <v>2460.727695236183</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>2487.327226231095</v>
+        <v>2487.327226278948</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>2514.533861450595</v>
+        <v>2514.533861499515</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>2542.356991543075</v>
+        <v>2542.356991593262</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>2570.805895470201</v>
+        <v>2570.805895521453</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>2599.889751134416</v>
+        <v>2599.889751186763</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>2629.617646690552</v>
+        <v>2629.617646744049</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>2659.998592476414</v>
+        <v>2659.998592530803</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>2691.041533516725</v>
+        <v>2691.041533572179</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2722.755362576638</v>
+        <v>2722.755362633097</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2755.148933726322</v>
+        <v>2755.148933783701</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2788.231076386103</v>
+        <v>2788.231076444285</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2822.010609811744</v>
+        <v>2822.010609870874</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2856.496357991061</v>
+        <v>2856.496358051051</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>2891.697164914449</v>
+        <v>2891.697164975154</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>2927.621910180924</v>
+        <v>2927.621910242431</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>2964.279524909757</v>
+        <v>2964.279524971977</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>3001.679007917709</v>
+        <v>3001.679007980586</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>3039.829442127954</v>
+        <v>3039.829442191515</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>3078.740011176241</v>
+        <v>3078.740011240342</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>3118.420016177687</v>
+        <v>3118.420016242413</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>3158.878892617613</v>
+        <v>3158.87889268282</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>3200.126227335966</v>
+        <v>3200.126227401739</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>3242.171775565475</v>
+        <v>3242.171775631671</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>3285.025477989927</v>
+        <v>3285.025478056543</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>3328.697477791373</v>
+        <v>3328.697477858381</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>3373.198137645862</v>
+        <v>3373.198137713173</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>3418.538056639393</v>
+        <v>3418.538056707036</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>3464.728087065009</v>
+        <v>3464.728087132983</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>3511.779351069414</v>
+        <v>3511.779351137573</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>3559.703257114031</v>
+        <v>3559.703257182404</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>3608.511516217503</v>
+        <v>3608.511516286032</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>3658.216157941897</v>
+        <v>3658.216158010522</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>3708.829546093422</v>
+        <v>3708.829546162142</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>3760.364394099441</v>
+        <v>3760.364394168256</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>3812.833780025813</v>
+        <v>3812.833780094606</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>3866.251161203959</v>
+        <v>3866.251161272787</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>3920.630388428735</v>
+        <v>3920.630388497481</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>3975.985719690748</v>
+        <v>3975.985719759468</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>4032.331833407875</v>
+        <v>4032.331833476396</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>4089.683841120466</v>
+        <v>4089.683841188846</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>4148.057299606191</v>
+        <v>4148.057299674368</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>4207.468222384937</v>
+        <v>4207.468222453026</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>4267.933090565041</v>
+        <v>4267.933090632752</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>4329.468862994537</v>
+        <v>4329.468863062159</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>4392.092985681439</v>
+        <v>4392.092985748508</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>4455.823400424244</v>
+        <v>4455.823400491048</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2565,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>4520.678552629456</v>
+        <v>4520.678552695935</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2573,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>4586.677398255749</v>
+        <v>4586.677398321788</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2581,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>4653.839409842177</v>
+        <v>4653.839409907773</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>4722.184581577803</v>
+        <v>4722.184581643015</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>4791.733433355673</v>
+        <v>4791.733433420324</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>4862.50701376806</v>
+        <v>4862.507013832209</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>4934.526901983731</v>
+        <v>4934.526902047376</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>5007.815208459218</v>
+        <v>5007.815208522242</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>5082.394574426424</v>
+        <v>5082.394574488769</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>5158.288170098048</v>
+        <v>5158.288170159829</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>5235.519691537597</v>
+        <v>5235.519691598755</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>5314.11335612839</v>
+        <v>5314.113356188809</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>5394.093896584397</v>
+        <v>5394.093896643961</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>5475.486553437216</v>
+        <v>5475.486553496212</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>5558.317065938125</v>
+        <v>5558.317065996264</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>5642.611661306643</v>
+        <v>5642.611661363982</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>5728.397042261103</v>
+        <v>5728.397042317642</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>5815.700372762178</v>
+        <v>5815.700372817862</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>5904.549261901331</v>
+        <v>5904.5492619561</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>5994.971745866321</v>
+        <v>5994.971745920116</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>6086.996267907763</v>
+        <v>6086.996267960759</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>6180.65165624486</v>
+        <v>6180.651656296769</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>6275.967099832107</v>
+        <v>6275.967099882986</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>6372.972121920809</v>
+        <v>6372.972121970833</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>6471.696551343251</v>
+        <v>6471.696551392076</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>6572.170491449468</v>
+        <v>6572.170491497091</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>6674.42428662834</v>
+        <v>6674.424286675113</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>6778.488486349655</v>
+        <v>6778.488486395057</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>6884.39380665081</v>
+        <v>6884.393806695075</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>6992.171089018152</v>
+        <v>6992.171089061339</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>7101.851256593012</v>
+        <v>7101.851256634835</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>7213.46526764667</v>
+        <v>7213.465267687189</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>7327.044066270079</v>
+        <v>7327.044066309354</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>7442.618530232153</v>
+        <v>7442.61853027013</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>7560.219415955386</v>
+        <v>7560.219415992009</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>7679.877300568598</v>
+        <v>7679.877300603755</v>
       </c>
     </row>
     <row r="303">
@@ -2853,7 +2853,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>5585.839163300396</v>
+        <v>5585.839163324562</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>5674.522831279511</v>
+        <v>5674.522831302591</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>5764.743739461813</v>
+        <v>5764.743739483852</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>5856.522809686723</v>
+        <v>5856.522809707639</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>5949.880595959161</v>
+        <v>5949.880595978915</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>6044.837230093331</v>
+        <v>6044.837230112011</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>6141.412365219076</v>
+        <v>6141.412365236518</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>6239.625117166082</v>
+        <v>6239.62511718221</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>6339.494003752815</v>
+        <v>6339.494003767709</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>6441.036882029178</v>
+        <v>6441.036882043009</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>6544.27088351443</v>
+        <v>6544.270883526788</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>6649.212347486883</v>
+        <v>6649.212347497936</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>6755.876752405247</v>
+        <v>6755.876752414915</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>6864.278645538488</v>
+        <v>6864.278645546692</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>6974.431570897313</v>
+        <v>6974.431570904221</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>7086.347995584609</v>
+        <v>7086.347995589977</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>7200.039234674786</v>
+        <v>7200.039234678531</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>7315.515374764813</v>
+        <v>7315.515374767106</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>7432.785196352718</v>
+        <v>7432.785196353476</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>7551.856095194349</v>
+        <v>7551.856095193411</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>7672.734002836886</v>
+        <v>7672.73400283417</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>7795.423306508307</v>
+        <v>7795.423306504063</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>7919.92676859607</v>
+        <v>7919.926768590052</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>8046.245445923481</v>
+        <v>8046.245445915524</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>8174.378609082328</v>
+        <v>8174.378609072681</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>8304.323662081209</v>
+        <v>8304.323662069626</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>8436.076062582028</v>
+        <v>8436.076062568507</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>8569.62924302301</v>
+        <v>8569.629243007306</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>8704.974532936241</v>
+        <v>8704.974532918603</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>8842.10108278442</v>
+        <v>8842.101082764928</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>8980.995789650797</v>
+        <v>8980.995789628954</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>9121.643225142938</v>
+        <v>9121.643225118829</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>9264.025565868295</v>
+        <v>9264.025565842079</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>9408.122526862622</v>
+        <v>9408.122526834057</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>9553.911298361367</v>
+        <v>9553.911298330448</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>9701.366486307572</v>
+        <v>9701.366486274215</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>9850.460057001676</v>
+        <v>9850.460056965796</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>10001.16128631899</v>
+        <v>10001.16128628083</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>10153.43671389541</v>
+        <v>10153.43671385431</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>10307.25010271313</v>
+        <v>10307.25010266968</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>10462.5624045118</v>
+        <v>10462.56240446532</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>10619.33173143918</v>
+        <v>10619.33173139025</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>10777.51333437334</v>
+        <v>10777.51333432138</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>10937.05958831254</v>
+        <v>10937.0595882578</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>11097.91998526911</v>
+        <v>11097.91998521142</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>11260.04113503151</v>
+        <v>11260.04113497103</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>11423.36677421536</v>
+        <v>11423.36677415142</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>11587.83778394009</v>
+        <v>11587.83778387311</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>11753.39221651733</v>
+        <v>11753.39221644747</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>11919.96533145767</v>
+        <v>11919.96533138436</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>12087.48964112504</v>
+        <v>12087.48964104843</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>12255.89496630932</v>
+        <v>12255.8949662295</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>12425.10850198559</v>
+        <v>12425.10850190231</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>12595.054893476</v>
+        <v>12595.05489338942</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>12765.65632321027</v>
+        <v>12765.65632311998</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3293,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>12517.57694345266</v>
+        <v>12517.57694336194</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3301,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>12683.68222060444</v>
+        <v>12683.68222051036</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>12850.18211833539</v>
+        <v>12850.18211823796</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>13016.99285771592</v>
+        <v>13016.99285761513</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>13184.02885420895</v>
+        <v>13184.02885410432</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>13351.20286490902</v>
+        <v>13351.20286480087</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>13518.42614624695</v>
+        <v>13518.42614613544</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>13685.60862197848</v>
+        <v>13685.60862186298</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>13852.65906126953</v>
+        <v>13852.65906115066</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>14019.48526663954</v>
+        <v>14019.48526651731</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>14185.99427143266</v>
+        <v>14185.99427130675</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>14352.0925465039</v>
+        <v>14352.09254637463</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>14517.68621568624</v>
+        <v>14517.68621555297</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>14682.68127961307</v>
+        <v>14682.68127947644</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>14846.9838473966</v>
+        <v>14846.98384725692</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>15772.89032928959</v>
+        <v>15772.89032913862</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>15943.78830017474</v>
+        <v>15943.78830002074</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>16113.66585356814</v>
+        <v>16113.66585341078</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>16282.42736425644</v>
+        <v>16282.42736409521</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>16449.9786404166</v>
+        <v>16449.97864025251</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>16616.22720301657</v>
+        <v>16616.22720284878</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>16781.08256856833</v>
+        <v>16781.08256839819</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>16944.45653438715</v>
+        <v>16944.45653421415</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>17106.2634654883</v>
+        <v>17106.26346531209</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>17266.42058222102</v>
+        <v>17266.42058204263</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>17616.74738185691</v>
+        <v>17616.747381674</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>17775.09426017323</v>
+        <v>17775.09425998845</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>17931.5423013965</v>
+        <v>17931.54230120933</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>18086.02225182188</v>
+        <v>18086.02225163335</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>18238.46917707948</v>
+        <v>18238.4691768896</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>18388.82273769948</v>
+        <v>18388.82273750806</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>18537.02745880948</v>
+        <v>18537.02745861771</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>18683.03299303107</v>
+        <v>18683.03299283862</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>18826.7943756409</v>
+        <v>18826.79437544896</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>18968.27227109989</v>
+        <v>18968.27227090777</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>17037.73451568797</v>
+        <v>17037.73451551772</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3581,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>17159.73127903832</v>
+        <v>17159.73127886883</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3589,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>17279.61885883013</v>
+        <v>17279.61885866215</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>17397.38427481869</v>
+        <v>17397.38427465283</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>17513.02052265728</v>
+        <v>17513.02052249384</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>17626.52673152995</v>
+        <v>17626.52673136967</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>17737.90830897467</v>
+        <v>17737.90830881788</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>17847.17707222274</v>
+        <v>17847.17707207003</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>17954.35136547915</v>
+        <v>17954.35136533113</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>18059.45616249321</v>
+        <v>18059.4561623508</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>9406.092751238686</v>
+        <v>9406.092751167911</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>9458.43414789394</v>
+        <v>9458.434147826847</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>9509.763595674754</v>
+        <v>9509.763595611344</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>9560.108130283392</v>
+        <v>9560.108130224295</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>9609.49836207312</v>
+        <v>9609.49836201896</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>9657.968477476992</v>
+        <v>9657.968477427692</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>9705.556230875278</v>
+        <v>9705.556230831542</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>9752.302926592323</v>
+        <v>9752.302926554623</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>9798.253390793137</v>
+        <v>9798.253390761787</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>9843.455932961393</v>
+        <v>9843.455932937255</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>10538.5939663758</v>
+        <v>10538.59396635826</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>10585.34562285532</v>
+        <v>10585.34562284614</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>10631.4763006242</v>
+        <v>10631.47630062387</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>10677.05169524009</v>
+        <v>10677.05169524945</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>10722.14083252137</v>
+        <v>10722.14083254143</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>10766.81595441653</v>
+        <v>10766.81595444728</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>10811.15239152379</v>
+        <v>10811.15239156607</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>10855.2284218983</v>
+        <v>10855.22842195295</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>10899.12511579237</v>
+        <v>10899.12511585955</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>10942.92616595064</v>
+        <v>10942.92616603102</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>10986.71770312135</v>
+        <v>10986.71770321593</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>11030.58809639504</v>
+        <v>11030.58809650432</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>11074.6277380593</v>
+        <v>11074.6277381838</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>11118.92881260067</v>
+        <v>11118.92881274087</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>11163.58504957329</v>
+        <v>11163.5850497302</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>11208.69146004865</v>
+        <v>11208.6914602226</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>11254.34405639611</v>
+        <v>11254.34405658745</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>11300.63955522349</v>
+        <v>11300.63955543354</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>11347.67506333531</v>
+        <v>11347.67506356374</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3885,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>11395.54774664709</v>
+        <v>11395.5477468944</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3893,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>11444.35448209383</v>
+        <v>11444.3544823612</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>11494.19149263095</v>
+        <v>11494.19149291871</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>11545.15396558153</v>
+        <v>11545.15396588967</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>11597.33565464928</v>
+        <v>11597.33565497781</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>11650.82846612214</v>
+        <v>11650.82846647239</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>11705.72202986959</v>
+        <v>11705.72203024072</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>11762.10325597604</v>
+        <v>11762.10325636873</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>11820.05587796019</v>
+        <v>11820.05587837477</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>11879.65998378918</v>
+        <v>11879.65998422548</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>11940.99153605765</v>
+        <v>11940.99153651551</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>12004.12188292954</v>
+        <v>12004.12188340879</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>12069.11726168886</v>
+        <v>12069.11726218966</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>12136.03829695465</v>
+        <v>12136.03829747617</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>12204.93949587449</v>
+        <v>12204.93949641706</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>12275.8687428513</v>
+        <v>12275.86874341344</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>12348.86679661023</v>
+        <v>12348.86679719224</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>12423.96679267881</v>
+        <v>12423.96679327987</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>12501.19375453419</v>
+        <v>12501.19375515296</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>12580.56411700286</v>
+        <v>12580.56411763868</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>12662.08526563392</v>
+        <v>12662.08526628645</v>
       </c>
     </row>
   </sheetData>
